--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>VIAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,209 +665,221 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="17" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E7" s="2">
         <v>43827</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43736</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43645</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43554</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43463</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43372</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43099</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42917</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42826</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>256200</v>
+      </c>
+      <c r="E8" s="3">
         <v>313700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>299800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>289700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>265200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>306900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>268500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>259300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>219400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>205400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>190900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>198100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>196000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>206500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E9" s="3">
         <v>124200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>125400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>120200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>111700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>128900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>126900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>95700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>86000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>78200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>79000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>81800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>146800</v>
+      </c>
+      <c r="E10" s="3">
         <v>189500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>174400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>169500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>153500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>178000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>150400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>132400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>123700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>119400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>112700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>117000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>124700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -885,55 +897,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E12" s="3">
         <v>50300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>49800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>48700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>45900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>42600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>42200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>32100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>34100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -979,102 +995,111 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>-900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>4900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>18400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E15" s="3">
         <v>8800</v>
-      </c>
-      <c r="E15" s="3">
-        <v>8700</v>
       </c>
       <c r="F15" s="3">
         <v>8700</v>
       </c>
       <c r="G15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H15" s="3">
         <v>9200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>10400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>9800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>3400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1089,102 +1114,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>247100</v>
+      </c>
+      <c r="E17" s="3">
         <v>268700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>279100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>261900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>257300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>274000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>269700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>272400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>219300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>198500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>184200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>186100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>211200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>199800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>45000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>20700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>7900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-13100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>12000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-15200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1202,102 +1234,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>19500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>56200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>57700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E21" s="3">
         <v>73400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>50300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>57200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>35900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>63100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>25600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>22500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>79100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,140 +1344,149 @@
         <v>8400</v>
       </c>
       <c r="E22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F22" s="3">
         <v>8300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>10100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>11700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>12500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>10700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>9400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E23" s="3">
         <v>37900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>15100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>26300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-20700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-5600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>55000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>38800</v>
+      </c>
+      <c r="E24" s="3">
         <v>9900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1484,102 +1532,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E26" s="3">
         <v>28000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>15400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-31400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-7600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>49200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E27" s="3">
         <v>28000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>15400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-31400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-7600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>49200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1625,55 +1682,61 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
         <v>0</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-2400</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>1600</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1719,8 +1782,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1766,102 +1832,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-19500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-56200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-57700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E33" s="3">
         <v>28000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>13000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-31400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-7600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>13700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>49200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1907,107 +1982,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E35" s="3">
         <v>28000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>13000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-31400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-7600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>13700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>49200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E38" s="2">
         <v>43827</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43736</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43645</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43554</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43463</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43372</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43099</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42917</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42826</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2025,8 +2109,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2044,290 +2129,309 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>532500</v>
+      </c>
+      <c r="E41" s="3">
         <v>551800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>525300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>521500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>502700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>465600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>611400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>534300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>753100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>792700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1004400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>964200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>505700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1600</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1500</v>
       </c>
       <c r="F42" s="3">
         <v>1500</v>
       </c>
       <c r="G42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H42" s="3">
         <v>27100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>30000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>51700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>169300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>196200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>452300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>430900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>432200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>478600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>498000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>257400</v>
+      </c>
+      <c r="E43" s="3">
         <v>271100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>251900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>254500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>241800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>255000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>224100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>218600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>188200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>139900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>121200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>120400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>142600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>164400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>87000</v>
+      </c>
+      <c r="E44" s="3">
         <v>91900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>99400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>102700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>95100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>87200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>89500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>92300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>104200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>77300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>68900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>48000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>46800</v>
-      </c>
-      <c r="P44" s="3">
-        <v>47200</v>
       </c>
       <c r="Q44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>52100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>63600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>57100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>62000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>65300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>59600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>914000</v>
+      </c>
+      <c r="E46" s="3">
         <v>954800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>914200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>916800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>909600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>889900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1026200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1155200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1089500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1479700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1469100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1667000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1697500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1274900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2373,102 +2477,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>173500</v>
+        <v>213000</v>
       </c>
       <c r="E48" s="3">
+        <v>218400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>205100</v>
+      </c>
+      <c r="G48" s="3">
+        <v>179900</v>
+      </c>
+      <c r="H48" s="3">
+        <v>181600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>180600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>170800</v>
+      </c>
+      <c r="K48" s="3">
         <v>170500</v>
       </c>
-      <c r="F48" s="3">
-        <v>179900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>181600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>180600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>170800</v>
-      </c>
-      <c r="J48" s="3">
-        <v>170500</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>174500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>135500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>140200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>136900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>134600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>133800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>533900</v>
+      </c>
+      <c r="E49" s="3">
         <v>563800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>568500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>592700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>590400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>594000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>557700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>571400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>609500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>214000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>220200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>182700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>188300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>194100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2514,8 +2627,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2561,55 +2677,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>167600</v>
+        <v>117300</v>
       </c>
       <c r="E52" s="3">
-        <v>154500</v>
+        <v>122700</v>
       </c>
       <c r="F52" s="3">
+        <v>119900</v>
+      </c>
+      <c r="G52" s="3">
         <v>125700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>127900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>133700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>134100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>129700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>129200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>128400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>123900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>116000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2655,55 +2777,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1778200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1859700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1807700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1815100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1809500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1798200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1888800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2026800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2007200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1958400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1957900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2110500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2140700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1718800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2721,8 +2849,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2740,55 +2869,59 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E57" s="3">
         <v>48900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>60900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>55400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>60300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>38700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>40500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>32600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>34700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>36000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2798,8 +2931,8 @@
       <c r="E58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2808,22 +2941,22 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>142700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>551700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>420400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>436800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>443300</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
@@ -2834,196 +2967,211 @@
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>193900</v>
+      </c>
+      <c r="E59" s="3">
         <v>213000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>221600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>220600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>227200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>242400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>226600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>228900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>214500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>204500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>183200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>196200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>212300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>209000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>239100</v>
+      </c>
+      <c r="E60" s="3">
         <v>261900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>282500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>284000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>284700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>297800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>429600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>553200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>690700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>680000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>667000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>228800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>247000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>245000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>611500</v>
+      </c>
+      <c r="E61" s="3">
         <v>606100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>600600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>604300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>599400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>594700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>589800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>584700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>393300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>389700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>386500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>959200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>985900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>626300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>250700</v>
+      </c>
+      <c r="E62" s="3">
         <v>227400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>216500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>201000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>197100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>195600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>159800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>154000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>164600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>135300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>138100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>136100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>136600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>138100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3069,8 +3217,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3116,8 +3267,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3163,55 +3317,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1101300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1095400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1099600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1089300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1081200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1088100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1179200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1291900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1248600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1205000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1191600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1324100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1369500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1009400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3229,8 +3389,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3276,8 +3437,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3323,8 +3487,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3370,8 +3537,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3417,55 +3587,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69423200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3511,8 +3687,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3558,8 +3737,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3605,55 +3787,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>676900</v>
+      </c>
+      <c r="E76" s="3">
         <v>764300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>708100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>725800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>728300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>710100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>709600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>734900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>758600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>753400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>766300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>786400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>771200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>709400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3699,107 +3887,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43918</v>
+      </c>
+      <c r="E80" s="2">
         <v>43827</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43736</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43645</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43554</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43463</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43372</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43099</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42917</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42826</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="E81" s="3">
         <v>28000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>13000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-31400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-7600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>13700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>49200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3817,55 +4014,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E83" s="3">
         <v>27100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>28700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>29100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>32500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>15800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>14000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>13800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,8 +4112,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3958,8 +4162,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4005,8 +4212,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4052,8 +4262,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4099,55 +4312,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E89" s="3">
         <v>38000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>31300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>41200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>17500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>23900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>11000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>36700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>18600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4165,55 +4384,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-7100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-12100</v>
       </c>
       <c r="I91" s="3">
         <v>-12100</v>
       </c>
       <c r="J91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-14900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-40700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4259,8 +4482,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4306,55 +4532,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-7900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>107000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-213100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-57200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>38800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>28800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>44500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4372,8 +4604,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4419,8 +4652,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4466,8 +4702,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4513,8 +4752,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4560,145 +4802,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-33500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-17500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-7800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-155600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-138400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>65800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-174600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-43700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>405100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-15500</v>
+      </c>
+      <c r="E101" s="3">
         <v>10900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-14400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-7200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-22700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>13700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>9100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>7300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E102" s="3">
         <v>26600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>37700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-135200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-11000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>77100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-218800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-211700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>40200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>458500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>31400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,221 +665,233 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="18" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E7" s="2">
         <v>43918</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43827</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43736</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43645</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43554</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43463</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43372</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43099</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42917</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42826</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E8" s="3">
         <v>256200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>313700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>299800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>289700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>265200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>306900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>268500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>259300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>219400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>205400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>190900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>198100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>196000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>206500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>112000</v>
+      </c>
+      <c r="E9" s="3">
         <v>109400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>124200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>125400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>120200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>111700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>128900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>118100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>126900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>95700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>86000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>78200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>79000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>81800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>154600</v>
+      </c>
+      <c r="E10" s="3">
         <v>146800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>189500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>174400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>169500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>153500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>178000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>150400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>132400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>123700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>119400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>112700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>117000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>124700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -898,58 +910,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E12" s="3">
         <v>46800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>49800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>48700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>45900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>42600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>32100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>29900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>30200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>34100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -998,108 +1014,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>14800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>18400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E15" s="3">
         <v>8900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8800</v>
-      </c>
-      <c r="F15" s="3">
-        <v>8700</v>
       </c>
       <c r="G15" s="3">
         <v>8700</v>
       </c>
       <c r="H15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="I15" s="3">
         <v>9200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>10400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>9800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>4500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1115,108 +1140,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>223300</v>
+      </c>
+      <c r="E17" s="3">
         <v>247100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>268700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>279100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>261900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>257300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>274000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>269700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>272400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>219300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>198500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>184200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>186100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>211200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>199800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>43300</v>
+      </c>
+      <c r="E18" s="3">
         <v>9100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>20700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>7900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>12000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-15200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1235,258 +1267,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>5300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>19500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>56200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>57700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E21" s="3">
         <v>41600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>73400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>50300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>57200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>35900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>63100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>23500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>25600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>22500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>45500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>79100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="E22" s="3">
         <v>8400</v>
       </c>
       <c r="F22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G22" s="3">
         <v>8300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>10100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>11700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>12500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>9400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>35000</v>
+      </c>
+      <c r="E23" s="3">
         <v>6000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>26300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-9600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-20700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>17600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>55000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E24" s="3">
         <v>38800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>10900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1535,108 +1583,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-32800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>12500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>15400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-31400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-7600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>49200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-32800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>12500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>15400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-31400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-7600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>49200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,47 +1756,50 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2400</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>1600</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1785,8 +1848,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1835,108 +1901,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-19500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-56200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-57700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-32800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>13000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-31400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-7600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>49200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1985,113 +2060,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-32800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>13000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-31400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-7600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>49200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E38" s="2">
         <v>43918</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43827</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43736</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43645</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43554</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43463</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43372</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43099</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42917</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42826</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2110,8 +2194,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2130,308 +2215,327 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>539000</v>
+      </c>
+      <c r="E41" s="3">
         <v>532500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>551800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>525300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>521500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>502700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>465600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>611400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>534300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>753100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>792700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1004400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>964200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>505700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="3">
         <v>1300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1600</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1500</v>
       </c>
       <c r="G42" s="3">
         <v>1500</v>
       </c>
       <c r="H42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I42" s="3">
         <v>27100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>30000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>51700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>169300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>196200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>452300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>430900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>432200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>478600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>498000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>256900</v>
+      </c>
+      <c r="E43" s="3">
         <v>257400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>271100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>251900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>254500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>241800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>255000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>224100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>218600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>188200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>139900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>121200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>120400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>142600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>164400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E44" s="3">
         <v>87000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>91900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>99400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>102700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>95100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>87200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>89500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>92300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>104200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>77300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>68900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>48000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>46800</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>47200</v>
       </c>
       <c r="R44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E45" s="3">
         <v>35800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>52100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>63600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>57100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>65300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>59600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>913600</v>
+      </c>
+      <c r="E46" s="3">
         <v>914000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>954800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>914200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>916800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>909600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>889900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1026200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1155200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1089500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1479700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1469100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1667000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1697500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1274900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,8 +2584,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2489,99 +2596,105 @@
         <v>213000</v>
       </c>
       <c r="E48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="F48" s="3">
         <v>218400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>205100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>179900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>181600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>180600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>170800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>170500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>174500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>135500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>140200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>136900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>134600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>133800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>529500</v>
+      </c>
+      <c r="E49" s="3">
         <v>533900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>563800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>568500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>592700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>590400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>594000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>557700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>571400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>609500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>214000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>220200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>182700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>188300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>194100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2630,8 +2743,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2680,58 +2796,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>120200</v>
+      </c>
+      <c r="E52" s="3">
         <v>117300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>122700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>119900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>125700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>127900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>133700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>134100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>129700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>133700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>129200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>128400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>123900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>120300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>116000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2780,58 +2902,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1776300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1778200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1859700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1807700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1815100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1809500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1798200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1888800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2026800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2007200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1958400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1957900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2110500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2140700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1718800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2850,8 +2978,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2870,63 +2999,67 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E57" s="3">
         <v>45200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>60900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>55400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>60300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>38700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>40500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>32600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>34700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>36000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>24</v>
+      <c r="D58" s="3">
+        <v>2800</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>24</v>
@@ -2934,8 +3067,8 @@
       <c r="F58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -2944,22 +3077,22 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>142700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>551700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>420400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>436800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>443300</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
@@ -2970,208 +3103,223 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E59" s="3">
         <v>193900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>213000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>221600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>220600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>227200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>242400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>226600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>228900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>214500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>204500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>183200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>196200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>212300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>209000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>232800</v>
+      </c>
+      <c r="E60" s="3">
         <v>239100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>261900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>282500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>284000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>284700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>297800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>429600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>553200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>690700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>680000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>667000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>228800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>247000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>245000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>617100</v>
+      </c>
+      <c r="E61" s="3">
         <v>611500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>606100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>600600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>604300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>599400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>594700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>589800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>584700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>393300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>389700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>386500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>959200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>985900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>626300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>215000</v>
+      </c>
+      <c r="E62" s="3">
         <v>250700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>227400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>216500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>201000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>197100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>195600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>159800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>154000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>164600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>135300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>138100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>136100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>136600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>138100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3220,8 +3368,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3270,8 +3421,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3320,58 +3474,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1064900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1101300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1095400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1099600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1089300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1081200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1088100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1179200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1291900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1248600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1205000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1191600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1324100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1369500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1009400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3390,8 +3550,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3440,8 +3601,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3490,8 +3654,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3540,8 +3707,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3590,58 +3760,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69397200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3690,8 +3866,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3740,8 +3919,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3790,58 +3972,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>711400</v>
+      </c>
+      <c r="E76" s="3">
         <v>676900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>764300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>708100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>725800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>728300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>710100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>709600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>734900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>758600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>753400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>766300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>786400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>771200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>709400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3890,113 +4078,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44009</v>
+      </c>
+      <c r="E80" s="2">
         <v>43918</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43827</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43736</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43645</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43554</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43463</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43372</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43099</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42917</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42826</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-32800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>13000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-31400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-7600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>49200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4015,58 +4212,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E83" s="3">
         <v>27200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>28700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>19500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>15800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>14000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>13800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4115,8 +4316,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4165,8 +4369,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4215,8 +4422,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4265,8 +4475,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4315,58 +4528,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>27200</v>
+      </c>
+      <c r="E89" s="3">
         <v>39100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>38000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>41200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>36700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>18600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4385,58 +4604,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-7100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-12100</v>
       </c>
       <c r="J91" s="3">
         <v>-12100</v>
       </c>
       <c r="K91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-12700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-14900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-40700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4485,8 +4708,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4535,58 +4761,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>107000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-213100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-27800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-57200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>38800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>28800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>44500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4605,8 +4837,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4655,8 +4888,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4705,8 +4941,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4755,8 +4994,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4805,154 +5047,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-33500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-17500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-155600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-138400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>65800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-174600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-43700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>405100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-13700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-15500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>10900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-14400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-5700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-7200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-22700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>13700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>9100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>7300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-18000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>37700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-135200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-11000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>77100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-218800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-211700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>40200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>458500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>31400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>VIAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,233 +665,245 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="19" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E7" s="2">
         <v>44009</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43918</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43827</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43736</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43645</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43554</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43463</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43372</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43099</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42917</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42826</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>284700</v>
+      </c>
+      <c r="E8" s="3">
         <v>266600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>256200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>313700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>299800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>289700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>265200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>306900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>268500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>259300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>219400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>205400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>198100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>196000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>206500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E9" s="3">
         <v>112000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>109400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>124200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>120200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>111700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>128900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>118100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>126900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>95700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>86000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>78200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>79000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>81800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>169400</v>
+      </c>
+      <c r="E10" s="3">
         <v>154600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>146800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>189500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>174400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>169500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>153500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>178000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>150400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>132400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>123700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>119400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>112700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>117000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>124700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,61 +923,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E12" s="3">
         <v>45000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>46800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>51500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>49800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>48700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>42600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>32100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>29900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>30200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>34100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1017,114 +1033,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E14" s="3">
         <v>5700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>18400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E15" s="3">
         <v>8700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8700</v>
       </c>
       <c r="H15" s="3">
         <v>8700</v>
       </c>
       <c r="I15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J15" s="3">
         <v>9200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>10400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1141,114 +1166,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>253400</v>
+      </c>
+      <c r="E17" s="3">
         <v>223300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>247100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>268700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>279100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>261900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>257300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>274000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>269700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>272400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>219300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>198500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>184200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>186100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>211200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>199800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E18" s="3">
         <v>43300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>9100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>45000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>27800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>12000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-15200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1268,273 +1300,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>5300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>19500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>56200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>57700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E21" s="3">
         <v>70200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>73400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>35900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>63100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>23500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>25600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>22500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>45500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>54800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>79100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E22" s="3">
         <v>8600</v>
-      </c>
-      <c r="E22" s="3">
-        <v>8400</v>
       </c>
       <c r="F22" s="3">
         <v>8400</v>
       </c>
       <c r="G22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H22" s="3">
         <v>8300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>10100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>11700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>9400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E23" s="3">
         <v>35000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>26300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-20700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-7600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>17600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>55000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
         <v>8300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>38800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1586,114 +1634,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E26" s="3">
         <v>26700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-32800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>12500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>15400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-31400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-8700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>26000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>49200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E27" s="3">
         <v>26700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-32800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>12500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>15400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-31400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-8700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>26000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>49200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1745,13 +1802,16 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -1759,47 +1819,50 @@
       <c r="F29" s="3">
         <v>0</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2400</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>1600</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1851,8 +1914,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1904,114 +1970,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-5300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-19500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-56200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-57700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E33" s="3">
         <v>26700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-32800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>12500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>13000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-31400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-8700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>26000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>49200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2063,119 +2138,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E35" s="3">
         <v>26700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-32800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>12500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>13000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-31400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-8700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>26000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>49200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E38" s="2">
         <v>44009</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43918</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43827</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43736</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43645</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43554</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43463</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43372</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43099</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42917</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42826</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2195,8 +2279,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2216,61 +2301,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>590800</v>
+      </c>
+      <c r="E41" s="3">
         <v>539000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>532500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>551800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>525300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>521500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>502700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>465600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>611400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>534300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>753100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>792700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1004400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>964200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>505700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2278,264 +2367,279 @@
         <v>1500</v>
       </c>
       <c r="E42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F42" s="3">
         <v>1300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1600</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1500</v>
       </c>
       <c r="H42" s="3">
         <v>1500</v>
       </c>
       <c r="I42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J42" s="3">
         <v>27100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>30000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>51700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>169300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>196200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>452300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>430900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>432200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>478600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>498000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>242100</v>
+      </c>
+      <c r="E43" s="3">
         <v>256900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>257400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>271100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>251900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>254500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>241800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>255000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>224100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>218600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>188200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>139900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>121200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>120400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>142600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>164400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>87300</v>
+      </c>
+      <c r="E44" s="3">
         <v>83300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>87000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>91900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>99400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>102700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>95100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>87200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>89500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>92300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>104200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>77300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>68900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>48000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>46800</v>
-      </c>
-      <c r="R44" s="3">
-        <v>47200</v>
       </c>
       <c r="S44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39900</v>
+      </c>
+      <c r="E45" s="3">
         <v>32900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>52100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>63600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>57100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>65300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>59600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>961600</v>
+      </c>
+      <c r="E46" s="3">
         <v>913600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>914000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>954800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>914200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>916800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>909600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>889900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1026200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1155200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1089500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1479700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1469100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1667000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1697500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1274900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2587,114 +2691,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>213000</v>
+        <v>215600</v>
       </c>
       <c r="E48" s="3">
         <v>213000</v>
       </c>
       <c r="F48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="G48" s="3">
         <v>218400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>205100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>181600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>180600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>170800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>170500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>174500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>135500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>140200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>136900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>134600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>133800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>522300</v>
+      </c>
+      <c r="E49" s="3">
         <v>529500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>533900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>563800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>568500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>592700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>590400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>594000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>557700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>571400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>609500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>214000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>220200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>182700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>188300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>194100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2746,8 +2859,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2799,61 +2915,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>124900</v>
+      </c>
+      <c r="E52" s="3">
         <v>120200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>117300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>122700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>125700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>127900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>133700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>134100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>129700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>133700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>129200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>128400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>123900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>120300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>116000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2905,61 +3027,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1824400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1776300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1778200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1859700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1807700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1815100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1809500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1798200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1888800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2026800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2007200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1958400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1957900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2110500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2140700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1718800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2979,8 +3107,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3000,69 +3129,73 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="E57" s="3">
         <v>53000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>60900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>57500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>55400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>60300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>38700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>40500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>32600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>34700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>36000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>24</v>
@@ -3070,8 +3203,8 @@
       <c r="G58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3080,22 +3213,22 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>142700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>551700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>420400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>436800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>443300</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
@@ -3106,220 +3239,235 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>182300</v>
+      </c>
+      <c r="E59" s="3">
         <v>177000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>193900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>213000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>221600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>220600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>227200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>242400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>226600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>228900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>214500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>204500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>183200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>196200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>212300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>209000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E60" s="3">
         <v>232800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>239100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>261900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>282500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>284000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>284700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>297800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>429600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>553200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>690700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>680000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>667000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>228800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>247000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>245000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>622800</v>
+      </c>
+      <c r="E61" s="3">
         <v>617100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>611500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>606100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>600600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>604300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>599400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>594700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>589800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>584700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>393300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>389700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>386500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>959200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>985900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>626300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>220300</v>
+      </c>
+      <c r="E62" s="3">
         <v>215000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>250700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>227400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>216500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>201000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>197100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>195600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>159800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>154000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>164600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>135300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>138100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>136100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>136600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>138100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3371,8 +3519,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3424,8 +3575,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3477,61 +3631,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1070600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1064900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1101300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1095400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1099600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1089300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1081200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1088100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1179200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1291900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1248600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1205000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1191600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1324100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1369500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1009400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3551,8 +3711,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3604,8 +3765,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3657,8 +3821,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3710,8 +3877,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3763,61 +3933,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69389600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3869,8 +4045,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3922,8 +4101,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3975,61 +4157,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>753800</v>
+      </c>
+      <c r="E76" s="3">
         <v>711400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>676900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>764300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>708100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>725800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>728300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>710100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>709600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>734900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>758600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>753400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>766300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>786400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>771200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>709400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4081,119 +4269,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44107</v>
+      </c>
+      <c r="E80" s="2">
         <v>44009</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43918</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43827</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43736</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43645</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43554</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43463</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43372</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43099</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42917</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42826</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E81" s="3">
         <v>26700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-32800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>12500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>13000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-31400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-8700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>26000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>49200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4213,61 +4410,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E83" s="3">
         <v>26600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>27200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>26900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>28700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>19500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>15800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>14000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>13800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4319,8 +4520,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4372,8 +4576,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4425,8 +4632,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4478,8 +4688,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4531,61 +4744,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E89" s="3">
         <v>27200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>39100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>38000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>41200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>36700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>18600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4605,61 +4824,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-7100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-12100</v>
       </c>
       <c r="K91" s="3">
         <v>-12100</v>
       </c>
       <c r="L91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-12700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-14900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-40700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4711,8 +4934,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4764,61 +4990,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>107000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>16500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-213100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-27800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-57200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>38800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>28800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>44500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4838,8 +5070,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4891,8 +5124,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4944,8 +5180,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4997,8 +5236,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5050,163 +5292,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-33500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-17500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-155600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-138400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>65800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-174600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-43700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>405100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-13700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-15500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>10900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-14400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-5700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-7200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-22700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>13700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>9100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>11300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>7300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-18000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E102" s="3">
         <v>6500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>3200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>37700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-135200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-11000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>77100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-218800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-211700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>40200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>458500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>31400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>VIAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,257 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="20" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E7" s="2">
         <v>44107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44009</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43918</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43827</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43736</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43645</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43554</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43463</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43372</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43099</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42917</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42826</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>299900</v>
+      </c>
+      <c r="E8" s="3">
         <v>284700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>266600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>256200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>313700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>299800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>289700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>265200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>306900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>268500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>259300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>219400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>205400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>190900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>198100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>196000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>206500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E9" s="3">
         <v>115300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>112000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>109400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>124200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>125400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>120200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>111700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>128900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>118100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>126900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>95700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>86000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>78200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>79000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>81800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>180100</v>
+      </c>
+      <c r="E10" s="3">
         <v>169400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>154600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>146800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>189500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>174400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>169500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>153500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>178000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>150400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>132400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>123700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>119400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>112700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>119200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>117000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>124700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -924,64 +936,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E12" s="3">
         <v>48800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>45000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>46800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>51500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>49800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>48700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>42600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>32100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>29900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>30200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>34100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1036,120 +1052,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-600</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>4900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>18400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E15" s="3">
         <v>8500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>8700</v>
       </c>
       <c r="I15" s="3">
         <v>8700</v>
       </c>
       <c r="J15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="K15" s="3">
         <v>9200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>10400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>10000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>3400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1167,120 +1192,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>257600</v>
+      </c>
+      <c r="E17" s="3">
         <v>253400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>223300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>247100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>268700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>279100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>261900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>257300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>274000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>269700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>272400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>219300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>198500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>184200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>186100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>211200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>199800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>42300</v>
+      </c>
+      <c r="E18" s="3">
         <v>31300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>43300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>45000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>27800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>6900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>12000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-15200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1301,120 +1333,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>5300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>19500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>56200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>57700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E21" s="3">
         <v>57400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>70200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>73400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>35900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>63100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>23500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>25600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>22500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>45500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>54800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>79100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,167 +1461,176 @@
         <v>9000</v>
       </c>
       <c r="E22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F22" s="3">
         <v>8600</v>
-      </c>
-      <c r="F22" s="3">
-        <v>8400</v>
       </c>
       <c r="G22" s="3">
         <v>8400</v>
       </c>
       <c r="H22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I22" s="3">
         <v>8300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>10100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>11700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13900</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>9400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E23" s="3">
         <v>22900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>6000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>37900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-9600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-20700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-7600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>55000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E24" s="3">
         <v>8600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>38800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1637,120 +1685,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E26" s="3">
         <v>14300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-32800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>12500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>15400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-31400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>26000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>49200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E27" s="3">
         <v>14300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-32800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>12500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>15400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-31400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>26000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>49200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1805,16 +1862,19 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
@@ -1822,47 +1882,50 @@
       <c r="G29" s="3">
         <v>0</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2400</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>1600</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1917,8 +1980,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1973,120 +2039,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-5300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-19500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-56200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-57700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E33" s="3">
         <v>14300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-32800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>12500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>13000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-31400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>26000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>49200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2141,125 +2216,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E35" s="3">
         <v>14300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-32800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>12500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>13000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-31400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>26000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>49200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E38" s="2">
         <v>44107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43918</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43827</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43736</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43645</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43554</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43463</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43372</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43099</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42917</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42826</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2280,8 +2364,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2302,344 +2387,363 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>644200</v>
+      </c>
+      <c r="E41" s="3">
         <v>590800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>539000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>532500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>551800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>525300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>521500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>502700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>465600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>611400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>534300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>753100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>792700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1004400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>964200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>505700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E42" s="3">
         <v>1500</v>
       </c>
       <c r="F42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1600</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1500</v>
       </c>
       <c r="I42" s="3">
         <v>1500</v>
       </c>
       <c r="J42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K42" s="3">
         <v>27100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>30000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>51700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>169300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>196200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>452300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>430900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>432200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>478600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>498000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>274000</v>
+      </c>
+      <c r="E43" s="3">
         <v>242100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>256900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>257400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>271100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>251900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>254500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>241800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>255000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>224100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>218600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>188200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>139900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>121200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>120400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>142600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>164400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>88200</v>
+      </c>
+      <c r="E44" s="3">
         <v>87300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>83300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>87000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>91900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>99400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>102700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>95100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>87200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>89500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>92300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>104200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>77300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>68900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>48000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>46800</v>
-      </c>
-      <c r="S44" s="3">
-        <v>47200</v>
       </c>
       <c r="T44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E45" s="3">
         <v>39900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>32900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>52100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>60200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>66600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>57100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>55400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>62000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>65300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>59600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1046400</v>
+      </c>
+      <c r="E46" s="3">
         <v>961600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>913600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>914000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>954800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>914200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>916800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>909600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>889900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1026200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1155200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1089500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1479700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1469100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1667000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1697500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1274900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2694,120 +2798,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>221600</v>
+      </c>
+      <c r="E48" s="3">
         <v>215600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>213000</v>
       </c>
       <c r="F48" s="3">
         <v>213000</v>
       </c>
       <c r="G48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="H48" s="3">
         <v>218400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>205100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>179900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>181600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>180600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>170800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>170500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>174500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>135500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>140200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>136900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>134600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>133800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>516200</v>
+      </c>
+      <c r="E49" s="3">
         <v>522300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>529500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>533900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>563800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>568500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>592700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>590400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>594000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>557700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>571400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>609500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>214000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>220200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>182700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>188300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>194100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2862,8 +2975,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2918,64 +3034,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E52" s="3">
         <v>124900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>120200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>117300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>122700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>119900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>125700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>127900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>133700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>134100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>129700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>133700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>129200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>128400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>123900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>120300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>116000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3030,64 +3152,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1915200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1824400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1776300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1778200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1859700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1807700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1815100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1809500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1798200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1888800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2026800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2007200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1958400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1957900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2110500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2140700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1718800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3108,8 +3236,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3130,64 +3259,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E57" s="3">
         <v>45200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>48900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>60900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>57500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>55400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>60300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>55500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>38700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>40500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>32600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>34700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>36000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3195,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>2800</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>24</v>
@@ -3206,8 +3339,8 @@
       <c r="H58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3216,22 +3349,22 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>142700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>551700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>420400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>436800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>443300</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>24</v>
@@ -3242,232 +3375,247 @@
       <c r="T58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>210100</v>
+      </c>
+      <c r="E59" s="3">
         <v>182300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>177000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>193900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>213000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>221600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>220600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>227200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>242400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>226600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>228900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>214500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>204500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>183200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>196200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>212300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>209000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E60" s="3">
         <v>227500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>232800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>239100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>261900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>282500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>284000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>284700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>297800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>429600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>553200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>690700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>680000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>667000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>228800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>247000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>245000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>628600</v>
+      </c>
+      <c r="E61" s="3">
         <v>622800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>617100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>611500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>606100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>600600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>604300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>599400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>594700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>589800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>584700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>393300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>389700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>386500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>959200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>985900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>626300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E62" s="3">
         <v>220300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>215000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>250700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>227400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>216500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>201000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>197100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>195600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>159800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>154000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>164600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>135300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>138100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>136100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>136600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>138100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3522,8 +3670,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3578,8 +3729,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3634,64 +3788,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1114200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1070600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1064900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1101300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1095400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1099600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1089300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1081200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1088100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1179200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1291900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1248600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1205000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1191600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1324100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1369500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1009400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3712,8 +3872,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3768,8 +3929,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3824,8 +3988,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3880,8 +4047,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3936,64 +4106,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69384800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4048,8 +4224,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4104,8 +4283,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4160,64 +4342,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>801000</v>
+      </c>
+      <c r="E76" s="3">
         <v>753800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>711400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>676900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>764300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>708100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>725800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>728300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>710100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>709600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>734900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>758600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>753400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>766300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>786400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>771200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>709400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4272,125 +4460,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44198</v>
+      </c>
+      <c r="E80" s="2">
         <v>44107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44009</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43918</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43827</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43736</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43645</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43554</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43463</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43372</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43099</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42917</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42826</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E81" s="3">
         <v>14300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-32800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>12500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>13000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-31400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>26000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>49200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4411,64 +4608,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E83" s="3">
         <v>25500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>26600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>26900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>27300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>28700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>19500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>15800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>14000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>13800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>14700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4523,8 +4724,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4579,8 +4783,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4635,8 +4842,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4691,8 +4901,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4747,64 +4960,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E89" s="3">
         <v>63900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>39100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>38000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>41200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>36700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>18600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4825,64 +5044,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-10300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-7100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-12100</v>
       </c>
       <c r="L91" s="3">
         <v>-12100</v>
       </c>
       <c r="M91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-12700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-14900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-40700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4937,8 +5160,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4993,64 +5219,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-7500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-17100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>107000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>16500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-213100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-27800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-57200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>38800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>28800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>44500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5071,8 +5303,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5127,8 +5360,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5183,8 +5419,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5239,8 +5478,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5295,172 +5537,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-17500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-155600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-138400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>65800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-174600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-43700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>405100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-13700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E101" s="3">
         <v>11200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-15500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>10900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-14400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-5700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-22700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>13700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>9100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>11300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>7300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-18000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>53500</v>
+      </c>
+      <c r="E102" s="3">
         <v>51800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>6500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>37700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-135200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-11000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>77100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-218800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-39600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-211700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>40200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>458500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>31400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>VIAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E7" s="2">
         <v>44198</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44107</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44009</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43918</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43827</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43736</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43645</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43554</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43463</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43372</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43099</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42917</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42826</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>303400</v>
+      </c>
+      <c r="E8" s="3">
         <v>299900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>284700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>266600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>256200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>313700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>299800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>289700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>265200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>306900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>268500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>259300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>219400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>205400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>190900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>198100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>196000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>206500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>121400</v>
+      </c>
+      <c r="E9" s="3">
         <v>119800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>115300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>112000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>109400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>124200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>125400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>120200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>111700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>128900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>118100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>126900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>95700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>86000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>78200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>78900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>79000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>81800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E10" s="3">
         <v>180100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>169400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>154600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>146800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>189500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>174400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>169500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>153500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>178000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>150400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>132400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>123700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>119400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>112700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>119200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>117000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>124700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -937,67 +949,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="E12" s="3">
         <v>50000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>48800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>45000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>46800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>50300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>49800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>42600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>42200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>32100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>29900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>29100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>30200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>34100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>35900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1055,126 +1071,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>4900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>5100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>18400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E15" s="3">
         <v>8100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8800</v>
-      </c>
-      <c r="I15" s="3">
-        <v>8700</v>
       </c>
       <c r="J15" s="3">
         <v>8700</v>
       </c>
       <c r="K15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="L15" s="3">
         <v>9200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>10400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>10000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>3400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1193,126 +1218,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>267500</v>
+      </c>
+      <c r="E17" s="3">
         <v>257600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>253400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>223300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>247100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>268700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>279100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>261900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>257300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>274000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>269700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>272400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>219300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>198500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>184200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>186100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>211200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>199800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E18" s="3">
         <v>42300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>31300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>43300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>45000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>20700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>7900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>6900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>6700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>12000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-15200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1334,126 +1366,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>19500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>56200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>57700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>60800</v>
+      </c>
+      <c r="E21" s="3">
         <v>68700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>57400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>70200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>73400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>63100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>23500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>23300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>25600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>22500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>45500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>54800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>79100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,173 +1503,182 @@
         <v>9000</v>
       </c>
       <c r="F22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G22" s="3">
         <v>8600</v>
-      </c>
-      <c r="G22" s="3">
-        <v>8400</v>
       </c>
       <c r="H22" s="3">
         <v>8400</v>
       </c>
       <c r="I22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="J22" s="3">
         <v>8300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>10100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>11700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>11400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>11700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>9400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E23" s="3">
         <v>34400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>22900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>37900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>15100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>21800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>26300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-9600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-20700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>55000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E24" s="3">
         <v>12500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>38800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,126 +1736,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E26" s="3">
         <v>21900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>14300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-32800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>28000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>12500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>15400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-31400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-7600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>26000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>49200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>21900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>14300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-32800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>28000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>12500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>15400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-15300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-31400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-7600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>26000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>49200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1865,8 +1922,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1936,8 @@
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
@@ -1885,47 +1945,50 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-2400</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>1600</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1983,8 +2046,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2042,126 +2108,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-19500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-56200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-57700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>21900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>14300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-32800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>28000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>12500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>13000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-15300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-31400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-7600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>26000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>49200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2219,131 +2294,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>21900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>14300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-32800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>28000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>12500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>13000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-15300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-31400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-7600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>26000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>49200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E38" s="2">
         <v>44198</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44107</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44009</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43918</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43827</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43736</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43645</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43554</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43463</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43372</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43099</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42917</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42826</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2365,8 +2449,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2388,67 +2473,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>672200</v>
+      </c>
+      <c r="E41" s="3">
         <v>644200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>590800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>539000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>532500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>551800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>525300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>521500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>502700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>465600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>611400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>534300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>753100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>792700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1004400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>964200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>505700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2456,294 +2545,309 @@
         <v>1600</v>
       </c>
       <c r="E42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="F42" s="3">
         <v>1500</v>
       </c>
       <c r="G42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H42" s="3">
         <v>1300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1600</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1500</v>
       </c>
       <c r="J42" s="3">
         <v>1500</v>
       </c>
       <c r="K42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L42" s="3">
         <v>27100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>30000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>51700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>169300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>196200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>452300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>430900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>432200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>478600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>498000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E43" s="3">
         <v>274000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>242100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>256900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>257400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>271100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>251900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>254500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>241800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>255000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>224100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>218600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>188200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>139900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>121200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>120400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>142600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>164400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>90600</v>
+      </c>
+      <c r="E44" s="3">
         <v>88200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>87300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>83300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>87000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>91900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>99400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>102700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>95100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>87200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>89500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>92300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>104200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>77300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>68900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>48000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>46800</v>
-      </c>
-      <c r="T44" s="3">
-        <v>47200</v>
       </c>
       <c r="U44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E45" s="3">
         <v>38400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>39900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>32900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>36100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>36600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>52100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>60200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>63600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>66600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>57100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>55400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>62000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>65300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>59600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1080000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1046400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>961600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>913600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>914000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>954800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>914200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>916800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>909600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>889900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1026200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1155200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1089500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1479700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1469100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1667000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1697500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1274900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2801,126 +2905,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>219100</v>
+      </c>
+      <c r="E48" s="3">
         <v>221600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>215600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>213000</v>
       </c>
       <c r="G48" s="3">
         <v>213000</v>
       </c>
       <c r="H48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="I48" s="3">
         <v>218400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>205100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>179900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>181600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>180600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>170800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>170500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>174500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>135500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>140200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>136900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>134600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>133800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>501000</v>
+      </c>
+      <c r="E49" s="3">
         <v>516200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>522300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>529500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>533900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>563800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>568500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>592700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>590400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>594000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>557700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>571400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>609500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>214000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>220200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>182700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>188300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>194100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2978,8 +3091,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3037,67 +3153,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E52" s="3">
         <v>131000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>124900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>120200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>117300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>122700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>119900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>125700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>127900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>133700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>134100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>129700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>133700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>129200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>128400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>123900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>120300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>116000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3155,67 +3277,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1926800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1915200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1824400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1776300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1778200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1859700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1807700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1815100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1809500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1798200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1888800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2026800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2007200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1958400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1957900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2110500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2140700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1718800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3237,8 +3365,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3260,67 +3389,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54800</v>
+      </c>
+      <c r="E57" s="3">
         <v>53500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>53000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>48900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>60900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>57500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>55400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>60300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>55500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>38700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>40500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>32600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>34700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>36000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3331,10 +3464,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>2800</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>24</v>
@@ -3342,8 +3475,8 @@
       <c r="I58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3352,22 +3485,22 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>142700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>551700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>420400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>436800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>443300</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>24</v>
@@ -3378,244 +3511,259 @@
       <c r="U58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E59" s="3">
         <v>210100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>182300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>177000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>193900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>213000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>221600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>220600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>227200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>242400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>226600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>228900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>214500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>204500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>183200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>196200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>212300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>209000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>273100</v>
+      </c>
+      <c r="E60" s="3">
         <v>263600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>227500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>232800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>239100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>261900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>282500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>284000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>284700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>297800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>429600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>553200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>690700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>680000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>667000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>228800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>247000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>245000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>634200</v>
+      </c>
+      <c r="E61" s="3">
         <v>628600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>622800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>617100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>611500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>606100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>600600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>604300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>599400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>594700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>589800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>584700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>393300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>389700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>386500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>959200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>985900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>626300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>207700</v>
+      </c>
+      <c r="E62" s="3">
         <v>222000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>220300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>215000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>250700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>227400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>216500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>201000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>197100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>195600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>159800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>154000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>164600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>135300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>138100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>136100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>136600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>138100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3673,8 +3821,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3732,8 +3883,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3791,67 +3945,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1115000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1114200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1070600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1064900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1101300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1095400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1099600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1089300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1081200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1088100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1179200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1291900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1248600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1205000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1191600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1324100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1369500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1009400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3873,8 +4033,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3932,8 +4093,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3991,8 +4155,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4050,8 +4217,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4109,67 +4279,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69380900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4227,8 +4403,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4286,8 +4465,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4345,67 +4527,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>811800</v>
+      </c>
+      <c r="E76" s="3">
         <v>801000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>753800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>711400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>676900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>764300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>708100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>725800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>728300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>710100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>709600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>734900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>758600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>753400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>766300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>786400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>771200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>709400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4463,131 +4651,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44289</v>
+      </c>
+      <c r="E80" s="2">
         <v>44198</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44107</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44009</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43918</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43827</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43736</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43645</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43554</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43463</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43372</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43099</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42917</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42826</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>21900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>14300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-32800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>28000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>12500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>13000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-15300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-31400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-7600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>26000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>49200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4609,67 +4806,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E83" s="3">
         <v>25300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>26600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>27200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>27100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>29100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>32500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>19500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>15800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>15600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>14000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>13800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>14700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4727,8 +4928,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4786,8 +4990,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4845,8 +5052,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4904,8 +5114,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4963,67 +5176,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E89" s="3">
         <v>68700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>63900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>39100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>28500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>23900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>36700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>18600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5045,67 +5264,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-12100</v>
       </c>
       <c r="M91" s="3">
         <v>-12100</v>
       </c>
       <c r="N91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="O91" s="3">
         <v>-12700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-40700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5163,8 +5386,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5222,67 +5448,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-7500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-4800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-17100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>107000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-213100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-27800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-57200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>38800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>28800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>44500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5304,8 +5536,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5363,8 +5596,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5422,8 +5658,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5481,8 +5720,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5540,181 +5782,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-33500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-17500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-155600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-138400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>65800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-33000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-174600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-43700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>405100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-13700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>15100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>11200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-15500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>10900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-14400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-22700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>13700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>3000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>9100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>11300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>7300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-18000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E102" s="3">
         <v>53500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>51800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>6500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>37700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-135200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-11000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>77100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-218800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-39600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-211700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>40200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>458500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>31400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>VIAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,293 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="22" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F7" s="2">
         <v>44289</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44198</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44107</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44009</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43918</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43827</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43736</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43645</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43554</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43463</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43372</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43099</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42917</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42826</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>326800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>310900</v>
+      </c>
+      <c r="F8" s="3">
         <v>303400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>299900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>284700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>266600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>256200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>313700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>299800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>289700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>265200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>306900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>268500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>259300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>219400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>205400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>190900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>198100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>196000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>206500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>131800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>128000</v>
+      </c>
+      <c r="F9" s="3">
         <v>121400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>119800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>115300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>112000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>109400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>124200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>125400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>120200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>111700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>128900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>118100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>126900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>95700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>86000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>78200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>78900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>79000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>81800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>182900</v>
+      </c>
+      <c r="F10" s="3">
         <v>182000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>180100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>169400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>154600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>146800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>189500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>174400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>169500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>153500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>178000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>150400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>132400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>123700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>119400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>112700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>119200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>117000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>124700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,70 +974,78 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>53600</v>
+      </c>
+      <c r="E12" s="3">
         <v>52100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="G12" s="3">
         <v>50000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>48800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>45000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>46800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>50300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>51500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>49800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>48700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>45900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>42600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>42200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>32100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>29900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>29100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>30200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>34100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>35900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1074,132 +1106,150 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F14" s="3">
         <v>-400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-1600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>14800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>4900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>2700</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>5100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>1400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>18400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F15" s="3">
         <v>8300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>8100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>8500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>8700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>8900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>8800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>8700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>8700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>9200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>10400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>9800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>10000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>4500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>3400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>3100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>3600</v>
-      </c>
-      <c r="T15" s="3">
-        <v>3500</v>
-      </c>
-      <c r="U15" s="3">
-        <v>3400</v>
       </c>
       <c r="V15" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X15" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1219,132 +1269,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>279900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>278200</v>
+      </c>
+      <c r="F17" s="3">
         <v>267500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>257600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>253400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>223300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>247100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>268700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>279100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>261900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>257300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>274000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>269700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>272400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>219300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>198500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>184200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>186100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>211200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>199800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>46900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>32700</v>
+      </c>
+      <c r="F18" s="3">
         <v>35900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>42300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>31300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>43300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>9100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>45000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>20700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>27800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>7900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>32900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-13100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>6900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>6700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>12000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-15200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>6700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1367,318 +1431,350 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-84500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>5300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>2700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>19500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>56200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>57700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>60900</v>
+      </c>
+      <c r="F21" s="3">
         <v>60800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>68700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>57400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>70200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>41600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>73400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>50300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>57200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>35900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>63100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>29600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>23500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>23300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>25600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>22500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>45500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>54800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>79100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="E22" s="3">
-        <v>9000</v>
+        <v>9100</v>
       </c>
       <c r="F22" s="3">
         <v>9000</v>
       </c>
       <c r="G22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I22" s="3">
         <v>8600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>8400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>8400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>8300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8000</v>
       </c>
       <c r="M22" s="3">
         <v>8100</v>
       </c>
       <c r="N22" s="3">
+        <v>8000</v>
+      </c>
+      <c r="O22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P22" s="3">
         <v>10100</v>
-      </c>
-      <c r="O22" s="3">
-        <v>11700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>11400</v>
       </c>
       <c r="Q22" s="3">
         <v>11700</v>
       </c>
       <c r="R22" s="3">
+        <v>11400</v>
+      </c>
+      <c r="S22" s="3">
+        <v>11700</v>
+      </c>
+      <c r="T22" s="3">
         <v>12500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>13900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>10700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>9400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-41200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26100</v>
+      </c>
+      <c r="F23" s="3">
         <v>26000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>34400</v>
       </c>
-      <c r="F23" s="3">
-        <v>22900</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>28300</v>
+      </c>
+      <c r="I23" s="3">
         <v>35000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>6000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>37900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>15100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>21800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>26300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-9600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-20700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>17600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>30300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>55000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F24" s="3">
         <v>14200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>12500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>8600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>8300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>38800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>10900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>5500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>5800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,132 +1835,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F26" s="3">
         <v>11800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>21900</v>
       </c>
-      <c r="F26" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I26" s="3">
         <v>26700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-32800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>28000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>6800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>12500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>15400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-15300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-31400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-7600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>12100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>26000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>49200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F27" s="3">
         <v>11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>21900</v>
       </c>
-      <c r="F27" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I27" s="3">
         <v>26700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-32800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>28000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>6800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>12500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>15400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-15300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-31400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-7600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>12100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>26000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>49200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1925,46 +2039,52 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1976,19 +2096,25 @@
         <v>24</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="U29" s="3">
         <v>1600</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2049,8 +2175,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2111,132 +2243,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-5300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-2700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-19500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-56200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-57700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F33" s="3">
         <v>11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>21900</v>
       </c>
-      <c r="F33" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I33" s="3">
         <v>26700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-32800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>28000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>12500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>13000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-15300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-31400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-7600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>13700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>26000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>49200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2297,137 +2447,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F35" s="3">
         <v>11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>21900</v>
       </c>
-      <c r="F35" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I35" s="3">
         <v>26700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-32800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>28000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>12500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>13000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-15300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-31400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-7600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>13700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>26000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>49200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F38" s="2">
         <v>44289</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44198</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44107</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44009</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43918</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43827</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43736</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43645</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43554</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43463</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43372</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43099</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42917</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42826</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2450,8 +2618,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2474,70 +2644,78 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>915600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>697800</v>
+      </c>
+      <c r="F41" s="3">
         <v>672200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>644200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>590800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>539000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>532500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>551800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>525300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>521500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>502700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>465600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>600700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>611400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>534300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>753100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>792700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1004400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>964200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>505700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2548,306 +2726,336 @@
         <v>1600</v>
       </c>
       <c r="F42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H42" s="3">
         <v>1500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>1300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>1600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>27100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>30000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>51700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>169300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>196200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>452300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>430900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>432200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>478600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>498000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>268400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>275600</v>
+      </c>
+      <c r="F43" s="3">
         <v>284500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>274000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>242100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>256900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>257400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>271100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>251900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>254500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>241800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>255000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>224100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>218600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>188200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>139900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>121200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>120400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>142600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>164400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>102800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>94900</v>
+      </c>
+      <c r="F44" s="3">
         <v>90600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>88200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>87300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>83300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>87000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>91900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>99400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>102700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>95100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>87200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>89500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>92300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>104200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>77300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>68900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>48000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>46800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>47200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>47200</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>42200</v>
+      </c>
+      <c r="F45" s="3">
         <v>31100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>38400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>39900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>32900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>35800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>38400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>36100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>36600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>42900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>52100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>60200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>63600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>66600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>57100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>55400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>62000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>65300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>59600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1332600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1112100</v>
+      </c>
+      <c r="F46" s="3">
         <v>1080000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1046400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>961600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>913600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>914000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>954800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>914200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>916800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>909600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>889900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1026200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1155200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1089500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1479700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1469100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1667000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1697500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1274900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2908,132 +3116,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>245000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>241100</v>
+      </c>
+      <c r="F48" s="3">
         <v>219100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>221600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>215600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>213000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>213000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>218400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>205100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>179900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>181600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>180600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>170800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>170500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>174500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>135500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>140200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>136900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>134600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>133800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>472100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>484500</v>
+      </c>
+      <c r="F49" s="3">
         <v>501000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>516200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>522300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>529500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>533900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>563800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>568500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>592700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>590400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>594000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>557700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>571400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>609500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>214000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>220200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>182700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>188300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>194100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3094,8 +3320,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3156,70 +3388,82 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>123700</v>
+      </c>
+      <c r="F52" s="3">
         <v>126700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>131000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>124900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>120200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>117300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>122700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>119900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>125700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>127900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>133700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>134100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>129700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>133700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>129200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>128400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>123900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>120300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>116000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3280,70 +3524,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2169500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1961400</v>
+      </c>
+      <c r="F54" s="3">
         <v>1926800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1915200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1824400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1776300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1778200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1859700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1807700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1815100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1809500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1798200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1888800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2026800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2007200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1958400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1957900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2110500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2140700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1718800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3366,8 +3622,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3390,70 +3648,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>66900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>63200</v>
+      </c>
+      <c r="F57" s="3">
         <v>54800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>53500</v>
-      </c>
-      <c r="F57" s="3">
-        <v>45200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>53000</v>
       </c>
       <c r="H57" s="3">
         <v>45200</v>
       </c>
       <c r="I57" s="3">
+        <v>53000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>45200</v>
+      </c>
+      <c r="K57" s="3">
         <v>48900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>60900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>63400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>57500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>55400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>60300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>55500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>55800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>38700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>40500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>32600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>34700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>36000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3461,52 +3727,52 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>414300</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>2800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>142700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>551700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>420400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>436800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>443300</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>24</v>
@@ -3514,256 +3780,286 @@
       <c r="V58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>227500</v>
+      </c>
+      <c r="F59" s="3">
         <v>218300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>210100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>182300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>177000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>193900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>213000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>221600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>220600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>227200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>242400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>226600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>228900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>214500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>204500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>183200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>196200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>212300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>209000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>292500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>705000</v>
+      </c>
+      <c r="F60" s="3">
         <v>273100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>263600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>227500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>232800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>239100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>261900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>282500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>284000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>284700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>297800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>429600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>553200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>690700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>680000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>667000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>228800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>247000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>245000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>817200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>271700</v>
+      </c>
+      <c r="F61" s="3">
         <v>634200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>628600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>622800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>617100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>611500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>606100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>600600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>604300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>599400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>594700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>589800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>584700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>393300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>389700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>386500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>959200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>985900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>626300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>201200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>209900</v>
+      </c>
+      <c r="F62" s="3">
         <v>207700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>222000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>220300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>215000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>250700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>227400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>216500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>201000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>197100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>195600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>159800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>154000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>164600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>135300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>138100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>136100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>136600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>138100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3824,8 +4120,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3886,8 +4188,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3948,70 +4256,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1310900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1186600</v>
+      </c>
+      <c r="F66" s="3">
         <v>1115000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1114200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1070600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1064900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1101300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1095400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1099600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1089300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1081200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1088100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1179200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1291900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1248600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1205000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1191600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1324100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1369500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1009400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4034,8 +4354,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4096,8 +4418,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4158,8 +4486,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4220,8 +4554,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4282,70 +4622,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69385600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-69393700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4406,8 +4758,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4468,8 +4826,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4530,70 +4894,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>858600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>774800</v>
+      </c>
+      <c r="F76" s="3">
         <v>811800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>801000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>753800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>711400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>676900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>764300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>708100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>725800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>728300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>710100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>709600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>734900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>758600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>753400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>766300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>786400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>771200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>709400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4654,137 +5030,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44471</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44380</v>
+      </c>
+      <c r="F80" s="2">
         <v>44289</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44198</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44107</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44009</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43918</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43827</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43736</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43645</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43554</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43463</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43372</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43099</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42917</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42826</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-54800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F81" s="3">
         <v>11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>21900</v>
       </c>
-      <c r="F81" s="3">
-        <v>14300</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I81" s="3">
         <v>26700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-32800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>28000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>12500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>13000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-15300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-31400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-7600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>13700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>26000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>49200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4807,70 +5201,78 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>25700</v>
+      </c>
+      <c r="F83" s="3">
         <v>25800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>25300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>25500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>26600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>27200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>27100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>26900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>27300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>27100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>28700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>29100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>32500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>19500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>15800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>15600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>14000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>13800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>14700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4931,8 +5333,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4993,8 +5401,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5055,8 +5469,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5117,8 +5537,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5179,70 +5605,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>62600</v>
+      </c>
+      <c r="F89" s="3">
         <v>48100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>68700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>63900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>27200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>39100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>38000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>31300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>28500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>41200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>41500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>27600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>17500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>13600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>23900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>11000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>36700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>28700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>18600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5265,70 +5703,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-25400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-10300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-6200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-7100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-12700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-6500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-8400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-40700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-8500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5389,8 +5835,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5451,70 +5903,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="F94" s="3">
         <v>-6800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-7500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-9700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-9400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-4800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-5900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-7900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-17100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>107000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>16500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-213100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-27800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-57200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>38800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>28800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>44500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5537,8 +6001,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5599,8 +6065,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5661,8 +6133,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5723,8 +6201,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5785,190 +6269,214 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>182800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-19800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-15800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-12900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-33500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-17500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-7800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-155600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-138400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>65800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-38700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-174600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-43700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>405100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-13700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>15100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>11200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-15500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>10900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-14400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-7200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-22700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>13700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>9100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>11300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>7300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-18000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>218300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>26400</v>
+      </c>
+      <c r="F102" s="3">
         <v>29300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>53500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>51800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>6500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-19300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>26600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>3200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>14600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>37700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-135200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-11000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>77100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-218800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-39600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-211700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>40200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>458500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>31400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>VIAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,293 +665,305 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="24" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E7" s="2">
         <v>44471</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44380</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44289</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44198</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44107</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44009</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43918</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43827</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43736</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43645</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43554</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43463</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43372</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43099</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42917</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42826</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>314800</v>
+      </c>
+      <c r="E8" s="3">
         <v>326800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>310900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>303400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>299900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>284700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>266600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>256200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>313700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>299800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>289700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>265200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>306900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>268500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>259300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>219400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>205400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>190900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>198100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>196000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>206500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>124300</v>
+      </c>
+      <c r="E9" s="3">
         <v>131800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>128000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>121400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>119800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>115300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>112000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>109400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>124200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>125400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>120200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>111700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>128900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>118100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>126900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>95700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>86000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>78200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>78900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>79000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>81800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>190500</v>
+      </c>
+      <c r="E10" s="3">
         <v>195000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>182900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>182000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>180100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>169400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>154600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>146800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>189500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>174400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>153500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>178000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>150400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>132400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>123700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>119400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>112700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>119200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>117000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>124700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,76 +988,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E12" s="3">
         <v>53600</v>
-      </c>
-      <c r="E12" s="3">
-        <v>52100</v>
       </c>
       <c r="F12" s="3">
         <v>52100</v>
       </c>
       <c r="G12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="H12" s="3">
         <v>50000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>48800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>45000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>46800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>50300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>49800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>45900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>42600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>42200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>32100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>29900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>29100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>30200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>34100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>35900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1112,144 +1128,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>6300</v>
       </c>
       <c r="E14" s="3">
+        <v>85900</v>
+      </c>
+      <c r="F14" s="3">
         <v>-800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>5700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>14800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>4900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2700</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>5100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>18400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1800</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8800</v>
-      </c>
-      <c r="L15" s="3">
-        <v>8700</v>
       </c>
       <c r="M15" s="3">
         <v>8700</v>
       </c>
       <c r="N15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="O15" s="3">
         <v>9200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>10400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1271,144 +1296,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>279900</v>
+        <v>271900</v>
       </c>
       <c r="E17" s="3">
+        <v>365800</v>
+      </c>
+      <c r="F17" s="3">
         <v>278200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>267500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>257600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>253400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>223300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>247100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>268700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>279100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>261900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>257300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>274000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>269700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>272400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>219300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>198500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>184200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>186100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>211200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>199800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>46900</v>
+        <v>42900</v>
       </c>
       <c r="E18" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F18" s="3">
         <v>32700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>35900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>31300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>43300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>9100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>45000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>27800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>7900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-13100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>12000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-15200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1433,348 +1465,364 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-84500</v>
+        <v>1100</v>
       </c>
       <c r="E20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>3700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>19500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>56200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>57700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>62900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-18100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>60900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>57400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>70200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>73400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>35900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>63100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>29600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>23500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>25600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>22500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>45500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>54800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>79100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E22" s="3">
         <v>3600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>9100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>9000</v>
       </c>
       <c r="G22" s="3">
         <v>9000</v>
       </c>
       <c r="H22" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8600</v>
-      </c>
-      <c r="J22" s="3">
-        <v>8400</v>
       </c>
       <c r="K22" s="3">
         <v>8400</v>
       </c>
       <c r="L22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="M22" s="3">
         <v>8300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>10100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>12500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>13900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>9400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>26100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>35000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>37900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>26300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-7600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>55000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E24" s="3">
         <v>13600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>28000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>38800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1841,144 +1889,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-54800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>11800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>26700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-32800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>12500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-31400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-7600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>12100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>26000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>49200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-54800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>11800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>26700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-32800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>12500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>15400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-31400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>12100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>26000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>49200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2045,19 +2102,22 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>24</v>
@@ -2065,8 +2125,8 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -2074,47 +2134,50 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2400</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>1600</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
         <v>0</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2181,8 +2244,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2249,144 +2315,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>84500</v>
+        <v>-1100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-3700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-19500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-56200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-57700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-54800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>26700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-32800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>12500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>13000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-31400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>26000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>49200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2453,149 +2528,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-54800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>26700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-32800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>12500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>13000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-31400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>26000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>49200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E38" s="2">
         <v>44471</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44380</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44289</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44198</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44107</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44009</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43918</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43827</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43736</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43645</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43554</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43463</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43372</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43099</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42917</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42826</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2620,8 +2704,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2646,81 +2731,85 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>732100</v>
+      </c>
+      <c r="E41" s="3">
         <v>915600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>697800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>672200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>644200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>590800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>539000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>532500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>551800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>525300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>521500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>502700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>465600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>600700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>611400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>534300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>753100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>792700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1004400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>964200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>505700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E42" s="3">
         <v>1600</v>
@@ -2732,330 +2821,345 @@
         <v>1600</v>
       </c>
       <c r="H42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I42" s="3">
         <v>1500</v>
       </c>
       <c r="J42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K42" s="3">
         <v>1300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1600</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1500</v>
       </c>
       <c r="M42" s="3">
         <v>1500</v>
       </c>
       <c r="N42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O42" s="3">
         <v>27100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>30000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>51700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>169300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>196200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>452300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>430900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>432200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>478600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>498000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>285100</v>
+      </c>
+      <c r="E43" s="3">
         <v>268400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>275600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>284500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>274000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>242100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>256900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>257400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>271100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>251900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>254500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>241800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>255000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>224100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>218600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>188200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>139900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>121200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>120400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>142600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>164400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>114400</v>
+      </c>
+      <c r="E44" s="3">
         <v>102800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>94900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>90600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>88200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>87300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>83300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>87000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>91900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>99400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>102700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>95100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>87200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>89500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>92300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>104200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>77300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>68900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>48000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>46800</v>
-      </c>
-      <c r="W44" s="3">
-        <v>47200</v>
       </c>
       <c r="X44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47300</v>
+      </c>
+      <c r="E45" s="3">
         <v>44200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>31100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>39900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>32900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>36100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>42900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>52100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>60200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>66600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>57100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>55400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>62000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>65300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>59600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1180600</v>
+      </c>
+      <c r="E46" s="3">
         <v>1332600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1112100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1080000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1046400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>961600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>913600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>914000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>954800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>914200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>916800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>909600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>889900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1026200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1155200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1089500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1479700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1469100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1667000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1697500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1274900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3122,144 +3226,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>258200</v>
+      </c>
+      <c r="E48" s="3">
         <v>245000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>241100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>219100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>221600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>215600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>213000</v>
       </c>
       <c r="J48" s="3">
         <v>213000</v>
       </c>
       <c r="K48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="L48" s="3">
         <v>218400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>205100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>179900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>181600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>180600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>170800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>170500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>174500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>135500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>140200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>136900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>134600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>133800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>461100</v>
+      </c>
+      <c r="E49" s="3">
         <v>472100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>484500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>501000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>516200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>522300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>529500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>533900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>563800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>568500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>592700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>590400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>594000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>557700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>571400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>609500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>214000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>220200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>182700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>188300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>194100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3326,8 +3439,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3394,76 +3510,82 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>119700</v>
+      </c>
+      <c r="E52" s="3">
         <v>119800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>123700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>126700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>131000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>124900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>120200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>117300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>122700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>119900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>125700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>127900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>133700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>134100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>129700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>133700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>129200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>128400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>123900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>120300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>116000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3530,76 +3652,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2019600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2169500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1961400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1926800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1915200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1824400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1776300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1778200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1859700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1807700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1815100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1809500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1798200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1888800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2026800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2007200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1958400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1957900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2110500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2140700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1718800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3624,8 +3752,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3650,76 +3779,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E57" s="3">
         <v>66900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>63200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>53500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>48900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>60900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>63400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>57500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>55400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>60300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>38700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>40500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>32600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>34700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>36000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3727,11 +3860,11 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>414300</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -3739,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>2800</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>24</v>
@@ -3750,8 +3883,8 @@
       <c r="L58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3760,22 +3893,22 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>142700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>551700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>420400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>436800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>443300</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>24</v>
@@ -3786,280 +3919,295 @@
       <c r="X58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>217100</v>
+      </c>
+      <c r="E59" s="3">
         <v>225600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>227500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>218300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>210100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>182300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>177000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>193900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>213000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>221600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>220600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>227200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>242400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>226600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>228900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>214500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>204500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>183200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>196200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>212300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>209000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>285100</v>
+      </c>
+      <c r="E60" s="3">
         <v>292500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>705000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>273100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>263600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>227500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>232800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>239100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>261900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>282500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>284000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>284700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>297800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>429600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>553200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>690700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>680000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>667000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>228800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>247000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>245000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>771800</v>
+      </c>
+      <c r="E61" s="3">
         <v>817200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>271700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>634200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>628600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>622800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>617100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>611500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>606100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>600600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>604300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>599400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>594700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>589800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>584700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>393300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>389700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>386500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>959200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>985900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>626300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>187900</v>
+      </c>
+      <c r="E62" s="3">
         <v>201200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>209900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>207700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>222000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>220300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>215000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>250700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>227400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>216500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>201000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>197100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>195600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>159800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>154000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>164600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>135300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>138100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>136100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>136600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>138100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4126,8 +4274,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4194,8 +4345,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4262,76 +4416,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1244800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1310900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1186600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1115000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1114200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1070600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1064900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1101300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1095400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1099600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1089300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1081200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1088100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1179200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1291900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1248600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1205000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1191600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1324100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1369500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1009400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4356,8 +4516,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4424,8 +4585,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4492,8 +4656,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4560,8 +4727,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4628,76 +4798,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69470400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69393700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4764,8 +4940,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4832,8 +5011,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4900,76 +5082,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>774800</v>
+      </c>
+      <c r="E76" s="3">
         <v>858600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>774800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>811800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>801000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>753800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>711400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>676900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>764300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>708100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>725800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>728300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>710100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>709600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>734900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>758600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>753400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>766300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>786400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>771200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>709400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5036,149 +5224,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44562</v>
+      </c>
+      <c r="E80" s="2">
         <v>44471</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44380</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44289</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44198</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44107</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44009</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43918</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43827</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43736</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43645</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43554</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43463</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43372</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43099</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42917</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42826</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-54800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>26700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-32800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>12500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>13000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-31400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>26000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>49200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5203,76 +5400,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E83" s="3">
         <v>19500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>25700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>26600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>27200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>32500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>19500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>15800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>14000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>13800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5339,8 +5540,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5407,8 +5611,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5475,8 +5682,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5543,8 +5753,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5611,76 +5824,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>22200</v>
+      </c>
+      <c r="E89" s="3">
         <v>53400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>62600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>68700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>63900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>39100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>31300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>41200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>17500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>36700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>28700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>18600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5705,76 +5924,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-12100</v>
       </c>
       <c r="P91" s="3">
         <v>-12100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-12700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-6500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-40700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5841,8 +6064,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5909,76 +6135,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-7500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-9700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-17100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>107000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-213100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-27800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-57200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>38800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>28800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>44500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6003,8 +6235,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6071,8 +6304,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6139,8 +6375,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6207,8 +6446,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6275,208 +6517,220 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-185700</v>
+      </c>
+      <c r="E100" s="3">
         <v>182800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-19800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-33500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-17500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-155600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-138400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>65800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-33000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-174600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-43700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>405100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-13700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>15100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>11200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-15500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>10900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-14400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-22700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>13700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>9100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>11300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>7300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-18000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E102" s="3">
         <v>218300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>26400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>29300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>53500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>51800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>14600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>37700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-135200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-11000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>77100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-218800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-39600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-211700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>40200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>458500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>31400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>VIAV</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="25" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E7" s="2">
         <v>44562</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44471</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44380</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44289</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44198</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44107</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44009</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43918</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43827</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43736</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43645</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43554</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43463</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43372</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43099</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42917</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42826</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>315500</v>
+      </c>
+      <c r="E8" s="3">
         <v>314800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>326800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>310900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>303400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>299900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>284700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>266600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>256200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>313700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>299800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>289700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>265200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>306900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>268500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>259300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>219400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>205400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>190900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>198100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>196000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>206500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>128600</v>
+      </c>
+      <c r="E9" s="3">
         <v>124300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>131800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>128000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>121400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>119800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>115300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>112000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>109400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>124200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>125400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>120200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>111700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>128900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>118100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>126900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>95700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>86000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>78200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>78900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>79000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>81800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E10" s="3">
         <v>190500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>195000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>182900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>182000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>180100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>169400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>154600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>146800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>189500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>174400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>153500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>178000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>150400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>132400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>123700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>119400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>112700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>119200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>117000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>124700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,79 +1001,83 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>54900</v>
+      </c>
+      <c r="E12" s="3">
         <v>50500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>53600</v>
-      </c>
-      <c r="F12" s="3">
-        <v>52100</v>
       </c>
       <c r="G12" s="3">
         <v>52100</v>
       </c>
       <c r="H12" s="3">
+        <v>52100</v>
+      </c>
+      <c r="I12" s="3">
         <v>50000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>48800</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>45000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>46800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>49800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>48700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>45900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>42600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>42200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>32100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>29900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>29100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>30200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>34100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>35900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1131,150 +1147,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E14" s="3">
         <v>6300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>85900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>5700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>14800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2700</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>5100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>18400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1800</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8400</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8800</v>
-      </c>
-      <c r="M15" s="3">
-        <v>8700</v>
       </c>
       <c r="N15" s="3">
         <v>8700</v>
       </c>
       <c r="O15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="P15" s="3">
         <v>9200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>10400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>9800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1297,150 +1322,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>281100</v>
+      </c>
+      <c r="E17" s="3">
         <v>271900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>365800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>278200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>267500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>257600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>253400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>223300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>247100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>268700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>279100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>261900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>257300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>274000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>269700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>272400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>219300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>198500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>184200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>186100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>211200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>199800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E18" s="3">
         <v>42900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>31300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>43300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>9100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>45000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>20700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>27800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>7900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>32900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-13100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>12000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-15200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1466,363 +1498,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>4100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>19500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>56200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>57700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>56900</v>
+      </c>
+      <c r="E21" s="3">
         <v>62900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>60800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>68700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>57400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>70200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>73400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>50300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>35900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>63100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>29600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>23500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>25600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>22500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>45500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>54800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>79100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E22" s="3">
         <v>7100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>9100</v>
       </c>
-      <c r="G22" s="3">
-        <v>9000</v>
-      </c>
       <c r="H22" s="3">
-        <v>9000</v>
+        <v>3600</v>
       </c>
       <c r="I22" s="3">
         <v>3600</v>
       </c>
       <c r="J22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K22" s="3">
         <v>8600</v>
-      </c>
-      <c r="K22" s="3">
-        <v>8400</v>
       </c>
       <c r="L22" s="3">
         <v>8400</v>
       </c>
       <c r="M22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="N22" s="3">
         <v>8300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>10100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>12500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>13900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>9400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E23" s="3">
         <v>36900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-41200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>26100</v>
       </c>
-      <c r="G23" s="3">
-        <v>26000</v>
-      </c>
       <c r="H23" s="3">
-        <v>34400</v>
+        <v>31400</v>
       </c>
       <c r="I23" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J23" s="3">
         <v>28300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>35000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>37900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>21800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>26300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-9600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-7600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-5600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>55000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>13600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>28000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>38800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1892,150 +1940,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E26" s="3">
         <v>34600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-54800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
-        <v>11800</v>
-      </c>
       <c r="H26" s="3">
-        <v>21900</v>
+        <v>17200</v>
       </c>
       <c r="I26" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J26" s="3">
         <v>19700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>26700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-32800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>28000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>12500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-31400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-7600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>12100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>26000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>49200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E27" s="3">
         <v>34600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-54800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
-        <v>11800</v>
-      </c>
       <c r="H27" s="3">
-        <v>21900</v>
+        <v>17200</v>
       </c>
       <c r="I27" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J27" s="3">
         <v>19700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>26700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-32800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>28000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>12500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>15400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-15300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-31400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>12100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>26000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>49200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2105,79 +2162,85 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>1600</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
         <v>0</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2247,8 +2310,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2318,150 +2384,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-4100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-19500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-56200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-57700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E33" s="3">
         <v>34600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-54800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
-        <v>11800</v>
-      </c>
       <c r="H33" s="3">
-        <v>21900</v>
+        <v>17200</v>
       </c>
       <c r="I33" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J33" s="3">
         <v>19700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-32800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>28000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>12500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>13000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-15300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-31400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>26000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>49200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2531,155 +2606,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E35" s="3">
         <v>34600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-54800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
-        <v>11800</v>
-      </c>
       <c r="H35" s="3">
-        <v>21900</v>
+        <v>17200</v>
       </c>
       <c r="I35" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J35" s="3">
         <v>19700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-32800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>28000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>12500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>13000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-15300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-31400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>26000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>49200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E38" s="2">
         <v>44562</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44471</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44380</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44289</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44198</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44107</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44009</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43918</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43827</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43736</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43645</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43554</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43463</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43372</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43099</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42917</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42826</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2705,8 +2789,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2732,87 +2817,91 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>589800</v>
+      </c>
+      <c r="E41" s="3">
         <v>732100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>915600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>697800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>672200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>644200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>590800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>539000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>532500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>551800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>525300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>521500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>502700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>465600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>611400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>534300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>753100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>792700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1004400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>964200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>505700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1700</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1600</v>
       </c>
       <c r="F42" s="3">
         <v>1600</v>
@@ -2824,342 +2913,357 @@
         <v>1600</v>
       </c>
       <c r="I42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J42" s="3">
         <v>1500</v>
       </c>
       <c r="K42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L42" s="3">
         <v>1300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1600</v>
-      </c>
-      <c r="M42" s="3">
-        <v>1500</v>
       </c>
       <c r="N42" s="3">
         <v>1500</v>
       </c>
       <c r="O42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P42" s="3">
         <v>27100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>30000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>51700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>169300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>196200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>452300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>430900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>432200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>478600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>498000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>289200</v>
+      </c>
+      <c r="E43" s="3">
         <v>285100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>268400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>275600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>284500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>274000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>242100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>256900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>257400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>271100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>251900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>254500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>241800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>255000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>224100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>218600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>188200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>139900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>121200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>120400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>142600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>164400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E44" s="3">
         <v>114400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>102800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>94900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>90600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>88200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>87300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>83300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>87000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>91900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>99400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>102700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>95100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>87200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>89500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>92300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>104200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>77300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>68900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>48000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>46800</v>
-      </c>
-      <c r="X44" s="3">
-        <v>47200</v>
       </c>
       <c r="Y44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E45" s="3">
         <v>47300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>31100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>39900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>32900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>35800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>36100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>42900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>52100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>60200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>63600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>66600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>57100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>55400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>62000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>65300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>59600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1044000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1180600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1332600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1112100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1080000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1046400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>961600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>913600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>914000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>954800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>914200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>916800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>909600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>889900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1026200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1155200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1089500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1479700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1469100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1667000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1697500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1274900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3229,150 +3333,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>267100</v>
+      </c>
+      <c r="E48" s="3">
         <v>258200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>245000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>241100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>219100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>221600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>215600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>213000</v>
       </c>
       <c r="K48" s="3">
         <v>213000</v>
       </c>
       <c r="L48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="M48" s="3">
         <v>218400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>205100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>179900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>181600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>180600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>170800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>170500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>174500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>135500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>140200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>136900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>134600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>133800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>447100</v>
+      </c>
+      <c r="E49" s="3">
         <v>461100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>472100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>484500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>501000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>516200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>522300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>529500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>533900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>563800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>568500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>592700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>590400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>594000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>557700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>571400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>609500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>214000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>220200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>182700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>188300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>194100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3442,8 +3555,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3513,79 +3629,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>119800</v>
+      </c>
+      <c r="E52" s="3">
         <v>119700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>119800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>123700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>126700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>131000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>124900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>120200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>117300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>122700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>119900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>125700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>127900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>133700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>134100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>129700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>133700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>129200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>128400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>123900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>120300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>116000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3655,79 +3777,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1878000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2019600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2169500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1961400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1926800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1915200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1824400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1776300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1778200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1859700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1807700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1815100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1809500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1798200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1888800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2026800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2007200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1958400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1957900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2110500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2140700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1718800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3753,8 +3881,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3780,79 +3909,83 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="E57" s="3">
         <v>68000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>63200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>53500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>45200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>48900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>60900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>63400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>57500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>55400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>60300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>38700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>40500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>32600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>34700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>36000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3863,11 +3996,11 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>414300</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -3875,10 +4008,10 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>2800</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>24</v>
@@ -3886,8 +4019,8 @@
       <c r="M58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3896,22 +4029,22 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>142700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>551700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>420400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>436800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>443300</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>24</v>
@@ -3922,292 +4055,307 @@
       <c r="Y58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E59" s="3">
         <v>217100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>225600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>227500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>218300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>210100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>182300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>177000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>193900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>213000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>221600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>220600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>227200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>242400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>226600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>228900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>214500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>204500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>183200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>196200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>212300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>209000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>259700</v>
+      </c>
+      <c r="E60" s="3">
         <v>285100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>292500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>705000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>273100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>263600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>227500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>232800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>239100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>261900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>282500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>284000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>284700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>297800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>429600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>553200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>690700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>680000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>667000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>228800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>247000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>245000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>722400</v>
+      </c>
+      <c r="E61" s="3">
         <v>771800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>817200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>271700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>634200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>628600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>622800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>617100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>611500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>606100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>604300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>599400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>594700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>589800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>584700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>393300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>389700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>386500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>959200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>985900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>626300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>186000</v>
+      </c>
+      <c r="E62" s="3">
         <v>187900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>201200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>209900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>207700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>222000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>220300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>215000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>250700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>227400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>216500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>201000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>197100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>195600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>159800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>154000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>164600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>135300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>138100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>136100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>136600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>138100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4277,8 +4425,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4348,8 +4499,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4419,79 +4573,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1168100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1244800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1310900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1186600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1115000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1114200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1070600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1064900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1101300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1095400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1099600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1089300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1081200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1088100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1179200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1291900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1248600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1205000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1191600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1324100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1369500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1009400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4517,8 +4677,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4588,8 +4749,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4659,8 +4823,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4730,8 +4897,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4801,79 +4971,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69529900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69470400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69393700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4943,8 +5119,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5014,8 +5193,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5085,79 +5267,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>709900</v>
+      </c>
+      <c r="E76" s="3">
         <v>774800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>858600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>774800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>811800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>801000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>753800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>711400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>676900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>764300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>708100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>725800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>728300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>710100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>709600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>734900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>758600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>753400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>766300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>786400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>771200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>709400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5227,155 +5415,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44653</v>
+      </c>
+      <c r="E80" s="2">
         <v>44562</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44471</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44380</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44289</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44198</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44107</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44009</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43918</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43827</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43736</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43645</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43554</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43463</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43372</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43099</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42917</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42826</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E81" s="3">
         <v>34600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-54800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
-        <v>11800</v>
-      </c>
       <c r="H81" s="3">
-        <v>21900</v>
+        <v>17200</v>
       </c>
       <c r="I81" s="3">
+        <v>27300</v>
+      </c>
+      <c r="J81" s="3">
         <v>19700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-32800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>28000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>12500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>13000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-15300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-31400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>26000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>49200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5401,79 +5598,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E83" s="3">
         <v>18900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>19500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>25700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>26600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>27200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>32500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>19500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>15800</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>14000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>13800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5543,8 +5744,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5614,8 +5818,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5685,8 +5892,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5756,8 +5966,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5827,79 +6040,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E89" s="3">
         <v>22200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>53400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>62600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>48100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>68700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>63900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>39100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>31300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>28500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>41200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>27600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>17500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>23900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>36700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>28700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>18600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5925,79 +6144,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-12100</v>
       </c>
       <c r="Q91" s="3">
         <v>-12100</v>
       </c>
       <c r="R91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="S91" s="3">
         <v>-12700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-6500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-40700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6067,8 +6290,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6138,79 +6364,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-6800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-7500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-4800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-5900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-17100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>107000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-213100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-27800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-57200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>38800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>28800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>44500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6236,8 +6468,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6307,8 +6540,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6378,8 +6614,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6449,8 +6688,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6520,217 +6762,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-185700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>182800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-19800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-33500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-17500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-155600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-138400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>65800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-33000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-174600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-43700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>405100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-13700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>15100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>11200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-15500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>10900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-14400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-22700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>13700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>9100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>11300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>7300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-142200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-183000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>218300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>26400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>29300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>53500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>51800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>6500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>14600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>37700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-135200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-11000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>77100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-218800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-39600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-211700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>40200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>458500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>31400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,329 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E7" s="2">
         <v>44653</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44562</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44471</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44380</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44289</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44198</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44107</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44009</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43918</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43827</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43736</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43645</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43554</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43463</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43372</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43099</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42917</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42826</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>335300</v>
+      </c>
+      <c r="E8" s="3">
         <v>315500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>314800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>326800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>310900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>303400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>299900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>284700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>266600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>256200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>313700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>299800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>289700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>265200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>306900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>268500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>259300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>219400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>205400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>190900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>198100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>196000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>206500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>134200</v>
+      </c>
+      <c r="E9" s="3">
         <v>128600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>124300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>131800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>128000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>121400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>119800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>115300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>112000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>109400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>124200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>125400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>120200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>111700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>128900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>118100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>126900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>95700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>86000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>78200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>78900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>79000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>81800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E10" s="3">
         <v>186900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>190500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>195000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>182900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>182000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>180100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>169400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>154600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>146800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>189500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>174400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>169500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>153500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>178000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>150400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>132400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>123700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>119400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>112700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>119200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>117000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>124700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1002,82 +1014,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E12" s="3">
         <v>54900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>53600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
+        <v>104200</v>
+      </c>
+      <c r="I12" s="3">
         <v>52100</v>
       </c>
-      <c r="H12" s="3">
-        <v>52100</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>50000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>48800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>45000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>46800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>51500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>49800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>48700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>45900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>42600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>42200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>32100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>29900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>29100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>30200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>34100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>35900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1150,82 +1166,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E14" s="3">
         <v>6400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>85900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-1600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>14800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2700</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>5100</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>18400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1800</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1233,73 +1255,76 @@
         <v>2200</v>
       </c>
       <c r="E15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F15" s="3">
         <v>2600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8400</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8800</v>
-      </c>
-      <c r="N15" s="3">
-        <v>8700</v>
       </c>
       <c r="O15" s="3">
         <v>8700</v>
       </c>
       <c r="P15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>9200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>10400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>9800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>4500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1323,156 +1348,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>290400</v>
+      </c>
+      <c r="E17" s="3">
         <v>281100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>271900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>365800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>278200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>267500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>257600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>253400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>223300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>247100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>268700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>279100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>261900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>257300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>274000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>269700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>272400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>219300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>198500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>184200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>186100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>211200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>199800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>44900</v>
+      </c>
+      <c r="E18" s="3">
         <v>34400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>42900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-39000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>31300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>43300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>9100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>45000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>20700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>7900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>32900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-13100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>12000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-15200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1499,173 +1531,180 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>4100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>19500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>56200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>57700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>62100</v>
+      </c>
+      <c r="E21" s="3">
         <v>56900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>62900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-18100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>60900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>68700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>57400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>70200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>73400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>35900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>63100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>29600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>23500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>25600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>22500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>45500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>54800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>79100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>7100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3600</v>
       </c>
-      <c r="G22" s="3">
-        <v>9100</v>
-      </c>
       <c r="H22" s="3">
-        <v>3600</v>
+        <v>3900</v>
       </c>
       <c r="I22" s="3">
         <v>3600</v>
@@ -1674,203 +1713,212 @@
         <v>3600</v>
       </c>
       <c r="K22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L22" s="3">
         <v>8600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>8400</v>
       </c>
       <c r="M22" s="3">
         <v>8400</v>
       </c>
       <c r="N22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="O22" s="3">
         <v>8300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>12500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>13900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>10700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>9400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>40800</v>
+      </c>
+      <c r="E23" s="3">
         <v>28600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-41200</v>
       </c>
-      <c r="G23" s="3">
-        <v>26100</v>
-      </c>
       <c r="H23" s="3">
+        <v>31300</v>
+      </c>
+      <c r="I23" s="3">
         <v>31400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>39800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>37900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>21800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>26300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-9600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-20700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-7600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>17600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>55000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E24" s="3">
         <v>9400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>13600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>28000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1943,156 +1991,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E26" s="3">
         <v>19200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-54800</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I26" s="3">
         <v>17200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>19700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>26700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-32800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>28000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>12500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-31400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-8700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-7600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>12100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>26000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>49200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E27" s="3">
         <v>19200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-54800</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I27" s="3">
         <v>17200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>19700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-32800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>28000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>12500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>15400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-31400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-8700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>12100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>26000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>49200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2165,8 +2222,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2200,47 +2260,50 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2400</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>1600</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
         <v>0</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2313,8 +2376,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2387,156 +2453,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-4100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-19500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-56200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-57700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E33" s="3">
         <v>19200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>34600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-54800</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I33" s="3">
         <v>17200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>19700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-32800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>28000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>12500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>13000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-31400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-8700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>13700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>26000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>49200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2609,161 +2684,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E35" s="3">
         <v>19200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>34600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-54800</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I35" s="3">
         <v>17200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>19700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-32800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>28000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>12500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>13000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-31400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-8700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>13700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>26000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>49200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E38" s="2">
         <v>44653</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44562</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44471</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44380</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44289</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44198</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44107</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44009</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43918</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43827</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43736</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43645</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43554</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43463</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43372</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43099</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42917</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42826</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2790,8 +2874,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2818,93 +2903,97 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>559900</v>
+      </c>
+      <c r="E41" s="3">
         <v>589800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>732100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>915600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>697800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>672200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>644200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>590800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>539000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>532500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>551800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>525300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>521500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>502700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>465600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>611400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>534300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>753100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>792700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1004400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>964200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>505700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1700</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1600</v>
       </c>
       <c r="G42" s="3">
         <v>1600</v>
@@ -2916,354 +3005,369 @@
         <v>1600</v>
       </c>
       <c r="J42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="K42" s="3">
         <v>1500</v>
       </c>
       <c r="L42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M42" s="3">
         <v>1300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1600</v>
-      </c>
-      <c r="N42" s="3">
-        <v>1500</v>
       </c>
       <c r="O42" s="3">
         <v>1500</v>
       </c>
       <c r="P42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q42" s="3">
         <v>27100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>30000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>51700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>169300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>196200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>452300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>430900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>432200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>478600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>498000</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>285800</v>
+      </c>
+      <c r="E43" s="3">
         <v>289200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>285100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>268400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>275600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>284500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>274000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>242100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>256900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>257400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>271100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>251900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>254500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>241800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>255000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>224100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>218600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>188200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>139900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>121200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>120400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>142600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>164400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>110100</v>
+      </c>
+      <c r="E44" s="3">
         <v>113900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>114400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>102800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>94900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>90600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>88200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>87300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>83300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>87000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>91900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>99400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>102700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>95100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>87200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>89500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>92300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>104200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>77300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>68900</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>48000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>46800</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>47200</v>
       </c>
       <c r="Z44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E45" s="3">
         <v>49500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>31100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>39900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>36100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>42900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>52100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>60200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>63600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>66600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>57100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>55400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>62000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>65300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>59600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1005100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1044000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1180600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1332600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1112100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1080000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1046400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>961600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>913600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>914000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>954800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>914200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>916800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>909600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>889900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1026200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1155200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1089500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1479700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1469100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1667000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1697500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1274900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3336,156 +3440,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>274100</v>
+      </c>
+      <c r="E48" s="3">
         <v>267100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>258200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>245000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>241100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>219100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>221600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>215600</v>
-      </c>
-      <c r="K48" s="3">
-        <v>213000</v>
       </c>
       <c r="L48" s="3">
         <v>213000</v>
       </c>
       <c r="M48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="N48" s="3">
         <v>218400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>205100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>179900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>181600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>180600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>170800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>170500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>174500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>135500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>140200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>136900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>134600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>133800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>441800</v>
+      </c>
+      <c r="E49" s="3">
         <v>447100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>461100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>472100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>484500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>501000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>516200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>522300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>529500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>533900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>563800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>568500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>592700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>590400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>594000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>557700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>571400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>609500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>214000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>220200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>182700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>188300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>194100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3558,8 +3671,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3632,82 +3748,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106900</v>
+      </c>
+      <c r="E52" s="3">
         <v>119800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>119700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>119800</v>
       </c>
-      <c r="G52" s="3">
-        <v>123700</v>
-      </c>
       <c r="H52" s="3">
+        <v>183200</v>
+      </c>
+      <c r="I52" s="3">
         <v>126700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>131000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>124900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>120200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>117300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>122700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>119900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>125700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>127900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>133700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>134100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>129700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>133700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>129200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>128400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>123900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>120300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>116000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3780,82 +3902,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1827900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1878000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2019600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2169500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1961400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1926800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1915200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1824400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1776300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1778200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1859700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1807700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1815100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1809500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1798200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1888800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2026800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2007200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1958400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1957900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2110500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2140700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1718800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3882,8 +4010,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3910,8 +4039,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3919,78 +4049,81 @@
         <v>58300</v>
       </c>
       <c r="E57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="F57" s="3">
         <v>68000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>66900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>63200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>53500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>48900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>60900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>63400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>57500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>55400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>60300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>55800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>38700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>40500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>32600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>34700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>36000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>68400</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -3999,10 +4132,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>414300</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>456700</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -4011,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>2800</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>24</v>
@@ -4022,8 +4155,8 @@
       <c r="N58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4032,22 +4165,22 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>142700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>551700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>420400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>436800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>443300</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>24</v>
@@ -4058,304 +4191,319 @@
       <c r="Z58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>242600</v>
+      </c>
+      <c r="E59" s="3">
         <v>201400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>217100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>225600</v>
       </c>
-      <c r="G59" s="3">
-        <v>227500</v>
-      </c>
       <c r="H59" s="3">
+        <v>240300</v>
+      </c>
+      <c r="I59" s="3">
         <v>218300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>210100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>182300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>177000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>193900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>213000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>221600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>220600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>227200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>242400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>226600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>228900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>214500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>204500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>183200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>196200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>212300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>209000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>369300</v>
+      </c>
+      <c r="E60" s="3">
         <v>259700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>285100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>292500</v>
       </c>
-      <c r="G60" s="3">
-        <v>705000</v>
-      </c>
       <c r="H60" s="3">
+        <v>747400</v>
+      </c>
+      <c r="I60" s="3">
         <v>273100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>263600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>227500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>232800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>239100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>261900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>282500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>284000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>284700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>297800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>429600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>553200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>690700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>680000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>667000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>228800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>247000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>245000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>632500</v>
+      </c>
+      <c r="E61" s="3">
         <v>722400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>771800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>817200</v>
       </c>
-      <c r="G61" s="3">
-        <v>271700</v>
-      </c>
       <c r="H61" s="3">
+        <v>240200</v>
+      </c>
+      <c r="I61" s="3">
         <v>634200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>628600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>622800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>617100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>611500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>606100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>600600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>604300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>599400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>594700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>589800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>584700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>393300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>389700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>386500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>959200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>985900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>626300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E62" s="3">
         <v>186000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>187900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>201200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>209900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>207700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>222000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>220300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>215000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>250700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>227400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>216500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>201000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>197100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>195600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>159800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>154000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>164600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>135300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>138100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>136100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>136600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>138100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4428,8 +4576,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4502,8 +4653,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4576,82 +4730,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1156200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1168100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1244800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1310900</v>
       </c>
-      <c r="G66" s="3">
-        <v>1186600</v>
-      </c>
       <c r="H66" s="3">
+        <v>1197500</v>
+      </c>
+      <c r="I66" s="3">
         <v>1115000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1114200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1070600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1064900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1101300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1095400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1099600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1089300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1081200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1088100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1179200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1291900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1248600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1205000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1191600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1324100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1369500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1009400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4678,8 +4838,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4752,8 +4913,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +4990,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4900,8 +5067,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4974,82 +5144,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69542300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69529900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69470400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="G72" s="3">
-        <v>-69393700</v>
-      </c>
       <c r="H72" s="3">
+        <v>-69322300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5122,8 +5298,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5196,8 +5375,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5270,82 +5452,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>671700</v>
+      </c>
+      <c r="E76" s="3">
         <v>709900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>774800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>858600</v>
       </c>
-      <c r="G76" s="3">
-        <v>774800</v>
-      </c>
       <c r="H76" s="3">
+        <v>763900</v>
+      </c>
+      <c r="I76" s="3">
         <v>811800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>801000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>753800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>711400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>676900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>764300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>708100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>725800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>728300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>710100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>709600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>734900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>758600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>753400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>766300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>786400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>771200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>709400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5418,161 +5606,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44744</v>
+      </c>
+      <c r="E80" s="2">
         <v>44653</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44562</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44471</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44380</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44289</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44198</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44107</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44009</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43918</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43827</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43736</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43645</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43554</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43463</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43372</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43099</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42917</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42826</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E81" s="3">
         <v>19200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>34600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-54800</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I81" s="3">
         <v>17200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>19700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-32800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>28000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>12500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>13000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-31400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-8700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>13700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>26000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>49200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5599,82 +5796,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E83" s="3">
         <v>21900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>18900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>19500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>25700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>26600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>27200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>29100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>32500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>19500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>15800</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>14000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>13800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5747,8 +5948,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5821,8 +6025,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5895,8 +6102,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5969,8 +6179,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6043,82 +6256,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>73600</v>
+      </c>
+      <c r="E89" s="3">
         <v>28900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>22200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>53400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>62600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>48100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>68700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>63900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>27200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>39100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>38000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>31300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>28500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>27600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>17500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>23900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>36700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>28700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>18600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6145,82 +6364,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-7100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-12100</v>
       </c>
       <c r="R91" s="3">
         <v>-12100</v>
       </c>
       <c r="S91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-12700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-6500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-40700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6293,8 +6516,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6367,82 +6593,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-6800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-10500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-7500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-5900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-7900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-17100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>107000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>16500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-213100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-27800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-57200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>38800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>28800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>44500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6469,8 +6701,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6543,8 +6776,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6617,8 +6853,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6691,8 +6930,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6765,226 +7007,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-148400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-185700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>182800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-19800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-12900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-33500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-17500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-155600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-138400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>65800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-33000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-174600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-43700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>405100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-13700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>11200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-15500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>10900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-14400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-22700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>13700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>9100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>11300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>7300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-142200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-183000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>218300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>26400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>29300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>53500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>51800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>26600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>14600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>37700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-135200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-11000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>77100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-218800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-211700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>40200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>458500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>31400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,329 +665,341 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="27" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E7" s="2">
         <v>44744</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44653</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44562</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44471</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44380</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44289</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44198</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44107</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44009</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43918</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43827</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43736</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43645</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43554</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43463</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43372</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43099</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42917</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42826</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>310200</v>
+      </c>
+      <c r="E8" s="3">
         <v>335300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>315500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>314800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>326800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>310900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>303400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>299900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>284700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>266600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>256200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>313700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>299800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>289700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>265200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>306900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>268500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>259300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>219400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>205400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>190900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>198100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>196000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>206500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>125400</v>
+      </c>
+      <c r="E9" s="3">
         <v>134200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>128600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>124300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>131800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>128000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>121400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>119800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>115300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>112000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>109400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>124200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>125400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>120200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>111700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>128900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>118100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>126900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>95700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>86000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>78200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>78900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>79000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>81800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>184800</v>
+      </c>
+      <c r="E10" s="3">
         <v>201100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>186900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>190500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>195000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>182900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>182000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>180100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>169400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>154600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>146800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>189500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>174400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>169500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>153500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>178000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>150400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>132400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>123700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>119400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>112700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>119200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>117000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>124700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,85 +1027,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>52600</v>
+      </c>
+      <c r="E12" s="3">
         <v>54200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>50500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>53600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>104200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>52100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>50000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48800</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>45000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>46800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>50300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>51500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>49800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>48700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>45900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>42600</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>42200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>32100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>29900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>29100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>30200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>34100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>35900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1169,85 +1185,91 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>3100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>6400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>85900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-1600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>14800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2700</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>5100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>18400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1800</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1258,73 +1280,76 @@
         <v>2200</v>
       </c>
       <c r="F15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G15" s="3">
         <v>2600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>8400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8800</v>
-      </c>
-      <c r="O15" s="3">
-        <v>8700</v>
       </c>
       <c r="P15" s="3">
         <v>8700</v>
       </c>
       <c r="Q15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="R15" s="3">
         <v>9200</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>10400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>9800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>4500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1349,162 +1374,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E17" s="3">
         <v>290400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>281100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>271900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>365800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>278200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>267500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>257600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>253400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>223300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>247100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>268700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>279100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>261900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>257300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>274000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>269700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>272400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>219300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>198500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>184200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>186100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>211200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>199800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>49800</v>
+      </c>
+      <c r="E18" s="3">
         <v>44900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>34400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>42900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-39000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>31300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>43300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>9100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>45000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>20700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>7900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>32900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-13100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>12000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-15200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1532,182 +1564,189 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>4100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>19500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>56200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>57700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E21" s="3">
         <v>62100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>56900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-18100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>60900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>68700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>57400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>70200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>73400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>57200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>35900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>63100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>29600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>23500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>25600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>22500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>45500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>54800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>79100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>7100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3900</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3600</v>
       </c>
       <c r="J22" s="3">
         <v>3600</v>
@@ -1716,209 +1755,218 @@
         <v>3600</v>
       </c>
       <c r="L22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M22" s="3">
         <v>8600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>8400</v>
       </c>
       <c r="N22" s="3">
         <v>8400</v>
       </c>
       <c r="O22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="P22" s="3">
         <v>8300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>8100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>12500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>13900</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>10700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>9400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>44800</v>
+      </c>
+      <c r="E23" s="3">
         <v>40800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>36900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-41200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>31300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>39800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>37900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>26300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-9600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-20700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-7600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-5600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>17600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>55000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E24" s="3">
         <v>24300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>13600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>28000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>14200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>5500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1994,162 +2042,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E26" s="3">
         <v>16500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>34600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-54800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>3300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>17200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>26700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-32800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>12500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-31400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-8700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-7600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>12100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>26000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>49200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E27" s="3">
         <v>16500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>34600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-54800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>3300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>17200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-32800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>12500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>15400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-31400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-8700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-7600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>12100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>26000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>49200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2225,8 +2282,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2263,47 +2323,50 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2400</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3" t="s">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>1600</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
       <c r="Z29" s="3">
         <v>0</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2379,8 +2442,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2456,162 +2522,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-4100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-56200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-57700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E33" s="3">
         <v>16500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-54800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>3300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>17200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-32800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>12500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>13000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-31400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-8700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-7600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>13700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>26000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>49200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2687,167 +2762,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E35" s="3">
         <v>16500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-54800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>3300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>17200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-32800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>12500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>13000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-31400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-8700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-7600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>13700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>26000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>49200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E38" s="2">
         <v>44744</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44653</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44562</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44471</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44380</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44289</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44198</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44107</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44009</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43918</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43827</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43736</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43645</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43554</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43463</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43372</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43099</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42917</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42826</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2875,8 +2959,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2904,99 +2989,103 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>512600</v>
+      </c>
+      <c r="E41" s="3">
         <v>559900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>589800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>732100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>915600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>697800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>672200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>644200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>590800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>539000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>532500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>551800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>525300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>521500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>502700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>465600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>611400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>534300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>753100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>792700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1004400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>964200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>505700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E42" s="3">
         <v>1400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1700</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1600</v>
       </c>
       <c r="H42" s="3">
         <v>1600</v>
@@ -3008,366 +3097,381 @@
         <v>1600</v>
       </c>
       <c r="K42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="L42" s="3">
         <v>1500</v>
       </c>
       <c r="M42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N42" s="3">
         <v>1300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1600</v>
-      </c>
-      <c r="O42" s="3">
-        <v>1500</v>
       </c>
       <c r="P42" s="3">
         <v>1500</v>
       </c>
       <c r="Q42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R42" s="3">
         <v>27100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>30000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>51700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>169300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>196200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>452300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>430900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>432200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>478600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>498000</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>279700</v>
+      </c>
+      <c r="E43" s="3">
         <v>285800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>289200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>285100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>268400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>275600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>284500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>274000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>242100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>256900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>257400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>271100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>251900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>254500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>241800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>255000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>224100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>218600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>188200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>139900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>121200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>120400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>142600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>164400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>110600</v>
+      </c>
+      <c r="E44" s="3">
         <v>110100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>113900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>114400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>102800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>94900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>90600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>87300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>83300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>87000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>91900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>99400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>102700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>95100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>87200</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>89500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>92300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>104200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>77300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>68900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>48000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>46800</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>47200</v>
       </c>
       <c r="AA44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E45" s="3">
         <v>47900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>49500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>44200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>42200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>31100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>38400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>39900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>32900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>36100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>42900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>52100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>60200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>63600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>66600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>57100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>55400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>62000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>65300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>59600</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>950800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1005100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1044000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1180600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1332600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1112100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1080000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1046400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>961600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>913600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>914000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>954800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>914200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>916800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>909600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>889900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1026200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1155200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1089500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1479700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1469100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1667000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1697500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1274900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3443,162 +3547,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>273300</v>
+      </c>
+      <c r="E48" s="3">
         <v>274100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>267100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>258200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>245000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>241100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>219100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>221600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>215600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>213000</v>
       </c>
       <c r="M48" s="3">
         <v>213000</v>
       </c>
       <c r="N48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="O48" s="3">
         <v>218400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>205100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>179900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>181600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>180600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>170800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>170500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>174500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>135500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>140200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>136900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>134600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>133800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>436500</v>
+      </c>
+      <c r="E49" s="3">
         <v>441800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>447100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>461100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>472100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>484500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>501000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>516200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>522300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>529500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>533900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>563800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>568500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>592700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>590400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>594000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>557700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>571400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>609500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>214000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>220200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>182700</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>188300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>194100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3674,8 +3787,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3751,85 +3867,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>104500</v>
+      </c>
+      <c r="E52" s="3">
         <v>106900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>119800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>119700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>183200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>126700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>131000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>124900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>120200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>117300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>122700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>119900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>125700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>127900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>133700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>134100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>129700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>133700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>129200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>128400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>123900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>120300</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>116000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3905,85 +4027,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1765100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1827900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1878000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2019600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2169500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1961400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1926800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1915200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1824400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1776300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1778200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1859700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1807700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1815100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1809500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1798200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1888800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2026800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2007200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1958400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1957900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2110500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2140700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1718800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4011,8 +4139,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4040,94 +4169,98 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>58300</v>
+        <v>62000</v>
       </c>
       <c r="E57" s="3">
         <v>58300</v>
       </c>
       <c r="F57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="G57" s="3">
         <v>68000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>66900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>63200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>53500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>48900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>60900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>63400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>57500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>55400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>60300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>55500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>55800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>38700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>40500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>32600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>34700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>36000</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="E58" s="3">
         <v>68400</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
@@ -4135,11 +4268,11 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>456700</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -4147,10 +4280,10 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>2800</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>24</v>
@@ -4158,8 +4291,8 @@
       <c r="O58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4168,22 +4301,22 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>142700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>551700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>420400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>436800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>443300</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>24</v>
@@ -4194,316 +4327,331 @@
       <c r="AA58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>203200</v>
+      </c>
+      <c r="E59" s="3">
         <v>242600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>201400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>217100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>225600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>240300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>218300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>210100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>182300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>177000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>193900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>213000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>221600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>220600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>227200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>242400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>226600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>228900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>214500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>204500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>183200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>196200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>212300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>209000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>333200</v>
+      </c>
+      <c r="E60" s="3">
         <v>369300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>259700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>285100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>292500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>747400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>273100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>263600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>227500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>232800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>239100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>261900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>282500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>284000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>284700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>297800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>429600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>553200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>690700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>680000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>667000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>228800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>247000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>245000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>632800</v>
+      </c>
+      <c r="E61" s="3">
         <v>632500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>722400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>771800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>817200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>240200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>634200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>628600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>622800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>617100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>611500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>606100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>604300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>599400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>594700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>589800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>584700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>393300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>389700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>386500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>959200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>985900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>626300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>150700</v>
+      </c>
+      <c r="E62" s="3">
         <v>154400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>186000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>187900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>201200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>209900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>207700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>222000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>220300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>215000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>250700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>227400</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>216500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>201000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>197100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>195600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>159800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>154000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>164600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>135300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>138100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>136100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>136600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>138100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4579,8 +4727,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4656,8 +4807,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4733,85 +4887,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1116700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1156200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1168100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1244800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1310900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1197500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1115000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1114200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1070600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1064900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1101300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1095400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1099600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1089300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1081200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1088100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1179200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1291900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1248600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1205000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1191600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1324100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1369500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1009400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4839,8 +4999,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4916,8 +5077,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4993,8 +5157,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5070,8 +5237,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5147,85 +5317,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69528400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69542300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69529900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69470400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69322300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5301,8 +5477,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5378,8 +5557,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5455,85 +5637,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>648400</v>
+      </c>
+      <c r="E76" s="3">
         <v>671700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>709900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>774800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>858600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>763900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>811800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>801000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>753800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>711400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>676900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>764300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>708100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>725800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>728300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>710100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>709600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>734900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>758600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>753400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>766300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>786400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>771200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>709400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5609,167 +5797,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44835</v>
+      </c>
+      <c r="E80" s="2">
         <v>44744</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44653</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44562</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44471</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44380</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44289</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44198</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44107</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44009</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43918</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43827</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43736</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43645</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43554</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43463</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43372</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43099</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42917</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42826</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E81" s="3">
         <v>16500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-54800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>3300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>17200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-32800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>12500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>13000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-31400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-8700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-7600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>13700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>26000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>49200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5797,85 +5994,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E83" s="3">
         <v>15100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>18900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>19500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>25700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>26600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>27200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>29100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>32500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>19500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>15800</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>14000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>13800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5951,8 +6152,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6028,8 +6232,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6105,8 +6312,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6182,8 +6392,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6259,85 +6472,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>26600</v>
+      </c>
+      <c r="E89" s="3">
         <v>73600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>53400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>62600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>48100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>68700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>63900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>27200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>39100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>31300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>41500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>27600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>17500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>13600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>23900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>36700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>28700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>18600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6365,85 +6584,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-19100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-12100</v>
       </c>
       <c r="S91" s="3">
         <v>-12100</v>
       </c>
       <c r="T91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-12700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-6500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-40700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6519,8 +6742,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6596,85 +6822,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-6800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-10500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-5900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-7900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-17100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>107000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>16500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-213100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-27800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-57200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>38800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>28800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>44500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6702,8 +6934,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6779,8 +7012,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6856,8 +7092,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6933,8 +7172,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7010,235 +7252,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-59100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-148400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-185700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>182800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-7600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-19800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-12900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-33500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-17500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-155600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-138400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>65800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-33000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-174600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-43700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>405100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-13700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-23400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>15100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>10900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-14400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>4000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-7200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-22700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>13700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>9100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>11300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>7300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-142200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-183000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>218300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>26400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>29300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>53500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>51800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>26600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>14600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>37700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-135200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-11000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>77100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-218800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-39600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-211700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>40200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>458500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>31400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,341 +665,353 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="28" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44835</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44744</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44653</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44562</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44471</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44380</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44289</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44198</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44107</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44009</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43918</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43827</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43736</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43645</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43554</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43463</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43372</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43099</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42917</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42826</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>284500</v>
+      </c>
+      <c r="E8" s="3">
         <v>310200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>335300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>315500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>314800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>326800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>310900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>303400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>299900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>284700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>266600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>256200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>313700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>299800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>289700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>265200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>306900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>268500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>259300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>219400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>205400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>190900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>198100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>196000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>206500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>117500</v>
+      </c>
+      <c r="E9" s="3">
         <v>125400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>134200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>128600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>124300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>131800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>128000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>121400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>119800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>115300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>112000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>109400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>124200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>125400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>120200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>111700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>128900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>118100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>126900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>95700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>86000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>78200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>78900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>79000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>81800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E10" s="3">
         <v>184800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>201100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>186900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>190500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>195000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>182900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>182000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>180100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>169400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>154600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>146800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>189500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>174400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>169500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>153500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>178000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>150400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>132400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>123700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>119400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>112700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>119200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>117000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>124700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,88 +1040,92 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E12" s="3">
         <v>52600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>54200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>50500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>53600</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>104200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>50000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>48800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>45000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>46800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>50300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>51500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>49800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>48700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>45900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>42600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>42200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>32100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>29900</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>29100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>30200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>34100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>35900</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1188,8 +1204,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,79 +1216,82 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>3100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>6400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>85900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-1600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>14800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2700</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>5100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>1400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>18400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1800</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1283,73 +1305,76 @@
         <v>2200</v>
       </c>
       <c r="G15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H15" s="3">
         <v>2600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8800</v>
-      </c>
-      <c r="P15" s="3">
-        <v>8700</v>
       </c>
       <c r="Q15" s="3">
         <v>8700</v>
       </c>
       <c r="R15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="S15" s="3">
         <v>9200</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>10400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>9800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>4500</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>3400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3500</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1375,168 +1400,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>261600</v>
+      </c>
+      <c r="E17" s="3">
         <v>260400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>290400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>281100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>271900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>365800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>278200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>267500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>257600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>253400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>223300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>247100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>268700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>279100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>261900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>257300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>274000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>269700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>272400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>219300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>198500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>184200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>186100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>211200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>199800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E18" s="3">
         <v>49800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>44900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>34400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>42900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-39000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>42300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>31300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>43300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>9100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>45000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>20700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>27800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>7900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>32900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-13100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>6900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>12000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-15200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1565,191 +1597,198 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>4100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>2900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>19500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>56200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>57700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E21" s="3">
         <v>68700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>62100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>56900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>62900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-18100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>68700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>57400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>70200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>73400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>57200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>35900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>63100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>29600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>23500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>25600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>22500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>45500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>54800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>79100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E22" s="3">
         <v>6100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>7100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3900</v>
-      </c>
-      <c r="J22" s="3">
-        <v>3600</v>
       </c>
       <c r="K22" s="3">
         <v>3600</v>
@@ -1758,215 +1797,224 @@
         <v>3600</v>
       </c>
       <c r="M22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N22" s="3">
         <v>8600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>8400</v>
       </c>
       <c r="O22" s="3">
         <v>8400</v>
       </c>
       <c r="P22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="Q22" s="3">
         <v>8300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>8100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>12500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>13900</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>10700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>9400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E23" s="3">
         <v>44800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>40800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-41200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>31300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>31400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>28300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>35000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>37900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>15100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>21800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>26300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-9600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-20700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-7600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>17600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>30300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>55000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E24" s="3">
         <v>12200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>24300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>13600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>28000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>14200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>38800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>5500</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2045,168 +2093,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E26" s="3">
         <v>32600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>19200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>34600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-54800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>3300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>17200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>27300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>26700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-32800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>12500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>15400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-31400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>12100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>26000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>49200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E27" s="3">
         <v>32600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>19200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>34600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-54800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>3300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>17200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>27300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-32800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>12500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>15400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-31400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>12100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>26000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>49200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2285,8 +2342,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2326,47 +2386,50 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2400</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>1600</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
       <c r="AA29" s="3">
         <v>0</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2445,8 +2508,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2525,168 +2591,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-4100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-2900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-19500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-56200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-57700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E33" s="3">
         <v>32600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>19200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-54800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>3300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>17200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>27300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-32800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>12500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>13000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-31400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-8700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>13700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>26000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>49200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2765,173 +2840,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E35" s="3">
         <v>32600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>19200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-54800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>3300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>17200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>27300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-32800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>12500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>13000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-31400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-8700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>13700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>26000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>49200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44835</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44744</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44653</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44562</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44471</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44380</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44289</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44198</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44107</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44009</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43918</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43827</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43736</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43645</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43554</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43463</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43372</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43099</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42917</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42826</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2960,8 +3044,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2990,105 +3075,109 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>484100</v>
+      </c>
+      <c r="E41" s="3">
         <v>512600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>559900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>589800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>732100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>915600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>697800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>672200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>644200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>590800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>539000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>532500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>551800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>525300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>521500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>502700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>465600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>600700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>611400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>534300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>753100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>792700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1004400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>964200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>505700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1700</v>
-      </c>
-      <c r="H42" s="3">
-        <v>1600</v>
       </c>
       <c r="I42" s="3">
         <v>1600</v>
@@ -3100,378 +3189,393 @@
         <v>1600</v>
       </c>
       <c r="L42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="M42" s="3">
         <v>1500</v>
       </c>
       <c r="N42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O42" s="3">
         <v>1300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1600</v>
-      </c>
-      <c r="P42" s="3">
-        <v>1500</v>
       </c>
       <c r="Q42" s="3">
         <v>1500</v>
       </c>
       <c r="R42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S42" s="3">
         <v>27100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>30000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>51700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>169300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>196200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>452300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>430900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>432200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>478600</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>498000</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>260200</v>
+      </c>
+      <c r="E43" s="3">
         <v>279700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>285800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>289200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>285100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>268400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>275600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>284500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>274000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>242100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>256900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>257400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>271100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>251900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>254500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>241800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>255000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>224100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>218600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>188200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>139900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>121200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>120400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>142600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>164400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>120300</v>
+      </c>
+      <c r="E44" s="3">
         <v>110600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>113900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>114400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>102800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>94900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>90600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>87300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>83300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>87000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>91900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>99400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>102700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>95100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>87200</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>89500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>92300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>104200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>77300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>68900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>48000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>46800</v>
-      </c>
-      <c r="AA44" s="3">
-        <v>47200</v>
       </c>
       <c r="AB44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E45" s="3">
         <v>46600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>47900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>49500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>44200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>42200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>31100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>38400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>39900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>32900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>38400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>36100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>42900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>52100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>60200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>63600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>66600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>57100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>55400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>62000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>65300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>59600</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>911900</v>
+      </c>
+      <c r="E46" s="3">
         <v>950800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1005100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1044000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1180600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1332600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1112100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1080000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1046400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>961600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>913600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>914000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>954800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>914200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>916800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>909600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>889900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1026200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1155200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1089500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1479700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1469100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1667000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1697500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1274900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3550,168 +3654,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>285100</v>
+      </c>
+      <c r="E48" s="3">
         <v>273300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>274100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>267100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>258200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>245000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>241100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>219100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>221600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>215600</v>
-      </c>
-      <c r="M48" s="3">
-        <v>213000</v>
       </c>
       <c r="N48" s="3">
         <v>213000</v>
       </c>
       <c r="O48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="P48" s="3">
         <v>218400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>205100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>179900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>181600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>180600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>170800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>170500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>174500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>135500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>140200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>136900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>134600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>133800</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>521600</v>
+      </c>
+      <c r="E49" s="3">
         <v>436500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>441800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>447100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>461100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>472100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>484500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>501000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>516200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>522300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>529500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>533900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>563800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>568500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>592700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>590400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>594000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>557700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>571400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>609500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>214000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>220200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>182700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>188300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>194100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3790,8 +3903,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3870,88 +3986,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>109400</v>
+      </c>
+      <c r="E52" s="3">
         <v>104500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>119800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>119800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>183200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>126700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>131000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>124900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>120200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>117300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>122700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>119900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>125700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>127900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>133700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>134100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>129700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>133700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>129200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>128400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>123900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>120300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>116000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4030,88 +4152,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1828000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1765100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1827900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1878000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2019600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2169500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1961400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1926800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1915200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1824400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1776300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1778200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1859700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1807700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1815100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1809500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1798200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1888800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2026800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2007200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1958400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1957900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2110500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2140700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1718800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4140,8 +4268,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4170,88 +4299,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>50200</v>
+      </c>
+      <c r="E57" s="3">
         <v>62000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>58300</v>
       </c>
       <c r="F57" s="3">
         <v>58300</v>
       </c>
       <c r="G57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="H57" s="3">
         <v>68000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>66900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>63200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>54800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>48900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>60900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>63400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>57500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>55400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>60300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>55500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>55800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>38700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>40500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>32600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>34700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>36000</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4259,11 +4392,11 @@
         <v>68000</v>
       </c>
       <c r="E58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="F58" s="3">
         <v>68400</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
@@ -4271,11 +4404,11 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>456700</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
@@ -4283,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>2800</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>24</v>
@@ -4294,8 +4427,8 @@
       <c r="P58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4304,22 +4437,22 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>142700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>551700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>420400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>436800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>443300</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>24</v>
@@ -4330,328 +4463,343 @@
       <c r="AB58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>210500</v>
+      </c>
+      <c r="E59" s="3">
         <v>203200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>242600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>201400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>217100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>225600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>240300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>218300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>210100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>182300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>177000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>193900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>213000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>221600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>220600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>227200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>242400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>226600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>228900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>214500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>204500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>183200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>196200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>212300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>209000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>328700</v>
+      </c>
+      <c r="E60" s="3">
         <v>333200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>369300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>259700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>285100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>292500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>747400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>273100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>263600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>227500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>232800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>239100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>261900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>282500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>284000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>284700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>297800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>429600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>553200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>690700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>680000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>667000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>228800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>247000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>245000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>633100</v>
+      </c>
+      <c r="E61" s="3">
         <v>632800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>632500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>722400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>771800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>817200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>240200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>634200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>628600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>622800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>617100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>611500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>606100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>604300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>599400</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>594700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>589800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>584700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>393300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>389700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>386500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>959200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>985900</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>626300</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>178400</v>
+      </c>
+      <c r="E62" s="3">
         <v>150700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>154400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>186000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>187900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>201200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>209900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>207700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>222000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>220300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>215000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>250700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>227400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>216500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>201000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>197100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>195600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>159800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>154000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>164600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>135300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>138100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>136100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>136600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>138100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4730,8 +4878,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4810,8 +4961,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4890,88 +5044,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1140200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1116700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1156200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1168100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1244800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1310900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1197500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1115000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1114200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1070600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1064900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1101300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1095400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1099600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1089300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1081200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1088100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1179200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1291900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1248600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1205000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1191600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1324100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1369500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1009400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5000,8 +5160,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5080,8 +5241,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5160,8 +5324,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5240,8 +5407,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5320,88 +5490,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69545200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69528400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69542300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69529900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69470400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69322300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,8 +5656,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5560,8 +5739,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5640,88 +5822,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>687800</v>
+      </c>
+      <c r="E76" s="3">
         <v>648400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>671700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>709900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>774800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>858600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>763900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>811800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>801000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>753800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>711400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>676900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>764300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>708100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>725800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>728300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>710100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>709600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>734900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>758600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>753400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>766300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>786400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>771200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>709400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5800,173 +5988,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44835</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44744</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44653</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44562</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44471</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44380</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44289</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44198</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44107</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44009</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43918</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43827</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43736</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43645</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43554</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43463</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43372</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43099</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42917</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42826</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E81" s="3">
         <v>32600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>19200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-54800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>3300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>17200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>27300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-32800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>12500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>13000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-31400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-8700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>13700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>26000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>49200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5995,88 +6192,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E83" s="3">
         <v>17800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>15100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>21900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>18900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>19500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>25700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>26600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>27200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>28700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>29100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>32500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>19500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>15800</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>14000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>13800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6155,8 +6356,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6235,8 +6439,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6315,8 +6522,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6395,8 +6605,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6475,88 +6688,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E89" s="3">
         <v>26600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>73600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>53400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>62600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>68700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>63900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>27200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>39100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>31300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>41200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>41500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>27600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>17500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>13600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>23900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>36700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>28700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>18600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6585,88 +6804,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-14800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-19100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-12100</v>
       </c>
       <c r="T91" s="3">
         <v>-12100</v>
       </c>
       <c r="U91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="V91" s="3">
         <v>-12700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-6500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6745,8 +6968,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6825,88 +7051,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-29700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-14800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-6800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-7500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-4800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-7900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-17100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>107000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>16500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-213100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-27800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-57200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>38800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>28800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>44500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6935,8 +7167,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7015,8 +7248,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7095,8 +7331,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7175,8 +7414,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7255,244 +7497,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-59100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-148400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-185700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>182800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-19800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-33500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-17500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-155600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-138400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>65800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-33000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-174600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-43700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>405100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-13700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-17900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-23400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>15100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>11200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>10900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-5700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>4000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-22700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>13700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>3000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>9100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>11300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>7300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-47800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-142200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-183000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>218300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>26400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>29300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>53500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>51800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>26600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>14600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>37700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-135200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-11000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>77100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-218800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-39600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-211700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>40200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>458500</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>31400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,353 +665,365 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="29" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44835</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44744</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44653</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44562</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44471</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44380</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44198</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44107</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44009</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43918</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43827</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43736</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43645</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43554</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43463</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43372</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43099</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42917</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42826</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>247800</v>
+      </c>
+      <c r="E8" s="3">
         <v>284500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>310200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>335300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>315500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>314800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>326800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>310900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>303400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>299900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>284700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>266600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>256200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>313700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>299800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>289700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>265200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>306900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>268500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>259300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>219400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>205400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>190900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>198100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>196000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>206500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>106800</v>
+      </c>
+      <c r="E9" s="3">
         <v>117500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>125400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>134200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>128600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>124300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>131800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>128000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>121400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>119800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>115300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>112000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>109400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>124200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>125400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>120200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>111700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>128900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>118100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>126900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>95700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>86000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>78200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>78900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>79000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>81800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>141000</v>
+      </c>
+      <c r="E10" s="3">
         <v>167000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>184800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>201100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>186900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>190500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>195000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>182900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>180100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>169400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>154600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>146800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>189500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>174400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>169500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>153500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>178000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>150400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>132400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>123700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>119400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>112700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>119200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>117000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>124700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1041,91 +1053,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E12" s="3">
         <v>51900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>52600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>54200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>54900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>50500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>53600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>104200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>50000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>48800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>45000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>46800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>50300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>51500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>49800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>48700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>45900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>42600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>42200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>32100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>29900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>29100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>30200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>34100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>35900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1207,96 +1223,102 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>10200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>6400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>85900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5700</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-1600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>14800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2700</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>5100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>1400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>18400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1800</v>
       </c>
-      <c r="AC14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E15" s="3">
         <v>2200</v>
@@ -1308,73 +1330,76 @@
         <v>2200</v>
       </c>
       <c r="H15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I15" s="3">
         <v>2600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>8400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8800</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>8700</v>
       </c>
       <c r="R15" s="3">
         <v>8700</v>
       </c>
       <c r="S15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="T15" s="3">
         <v>9200</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>10400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>9800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>10000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>4500</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>3400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3500</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1401,174 +1426,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>249900</v>
+      </c>
+      <c r="E17" s="3">
         <v>261600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>260400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>290400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>281100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>271900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>365800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>278200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>267500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>253400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>223300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>247100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>268700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>279100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>261900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>257300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>274000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>269700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>272400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>219300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>198500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>184200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>186100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>211200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>199800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E18" s="3">
         <v>22900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>49800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>34400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>42900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-39000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>32700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>42300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>31300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>43300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>45000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>20700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>27800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>7900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>32900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-13100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>6900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>12000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-15200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>6700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1598,200 +1630,207 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="3">
         <v>2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>4100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>2900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>19500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>56200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>57700</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E21" s="3">
         <v>41600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>62100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>56900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>62900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-18100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>68700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>57400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>70200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>73400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>57200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>35900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>63100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>29600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>23500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>25600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>22500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>45500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>54800</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>79100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E22" s="3">
         <v>6200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3900</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3600</v>
       </c>
       <c r="L22" s="3">
         <v>3600</v>
@@ -1800,221 +1839,230 @@
         <v>3600</v>
       </c>
       <c r="N22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O22" s="3">
         <v>8600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>8400</v>
       </c>
       <c r="P22" s="3">
         <v>8400</v>
       </c>
       <c r="Q22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="R22" s="3">
         <v>8300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>8100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>11700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>12500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>13900</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>10700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>9400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>18900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>40800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>31300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>28300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>37900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>15100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>21800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>26300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-9600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-20700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-7600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>17600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>30300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>55000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E24" s="3">
         <v>10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>24300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>13600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>28000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>8600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>38800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>9900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>8300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>5500</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5800</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2096,174 +2144,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E26" s="3">
         <v>8400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>32600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>19200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>34600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-54800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>17200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>27300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>19700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>26700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-32800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>12500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>15400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-31400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>12100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>26000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>49200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E27" s="3">
         <v>8400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>32600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>19200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>34600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-54800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>17200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>27300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>19700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>26700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-32800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>12500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>15400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-31400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>12100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>26000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>49200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2345,8 +2402,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2389,47 +2449,50 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-2400</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>1600</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
-      </c>
       <c r="AB29" s="3">
         <v>0</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2511,8 +2574,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2594,174 +2660,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-4100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-19500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-56200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-57700</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E33" s="3">
         <v>8400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>32600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>19200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>34600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-54800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>17200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>27300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>19700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>26700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-32800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>12500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>13000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-31400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-8700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>13700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>26000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>49200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2843,179 +2918,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E35" s="3">
         <v>8400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>32600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>19200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>34600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-54800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>27300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>19700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>26700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-32800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>12500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>13000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-31400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-8700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>13700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>26000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>49200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44835</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44744</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44653</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44562</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44471</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44380</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44289</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44198</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44107</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44009</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43918</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43827</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43736</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43645</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43554</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43463</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43372</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43099</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42917</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42826</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3045,8 +3129,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3076,111 +3161,115 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>580600</v>
+      </c>
+      <c r="E41" s="3">
         <v>484100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>512600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>559900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>589800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>732100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>915600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>697800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>672200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>644200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>590800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>539000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>532500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>551800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>525300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>521500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>502700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>465600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>600700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>611400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>534300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>753100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>792700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1004400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>964200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>505700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E42" s="3">
         <v>1400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1700</v>
-      </c>
-      <c r="I42" s="3">
-        <v>1600</v>
       </c>
       <c r="J42" s="3">
         <v>1600</v>
@@ -3192,390 +3281,405 @@
         <v>1600</v>
       </c>
       <c r="M42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="N42" s="3">
         <v>1500</v>
       </c>
       <c r="O42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P42" s="3">
         <v>1300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>1500</v>
       </c>
       <c r="R42" s="3">
         <v>1500</v>
       </c>
       <c r="S42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T42" s="3">
         <v>27100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>30000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>51700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>169300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>196200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>452300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>430900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>432200</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>478600</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>498000</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>257400</v>
+      </c>
+      <c r="E43" s="3">
         <v>260200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>279700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>285800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>289200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>285100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>268400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>275600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>284500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>274000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>242100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>256900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>257400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>271100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>251900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>254500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>241800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>255000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>224100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>218600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>188200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>139900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>121200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>120400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>142600</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>164400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E44" s="3">
         <v>120300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>110600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>113900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>114400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>102800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>94900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>90600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>88200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>87300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>83300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>87000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>91900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>99400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>102700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>95100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>87200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>89500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>92300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>104200</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>77300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>68900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>48000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>46800</v>
-      </c>
-      <c r="AB44" s="3">
-        <v>47200</v>
       </c>
       <c r="AC44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E45" s="3">
         <v>45900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>46600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>47900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>49500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>44200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>42200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>31100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>38400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>39900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>35800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>38400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>36100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>42900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>52100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>60200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>63600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>66600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>57100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>55400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>62000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>65300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>59600</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1003000</v>
+      </c>
+      <c r="E46" s="3">
         <v>911900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>950800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1005100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1044000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1180600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1332600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1112100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1080000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1046400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>961600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>913600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>914000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>954800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>914200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>916800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>909600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>889900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1026200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1155200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1089500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1479700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1469100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1667000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1697500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1274900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3657,174 +3761,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>287700</v>
+      </c>
+      <c r="E48" s="3">
         <v>285100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>273300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>274100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>267100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>258200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>245000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>241100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>219100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>221600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>215600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>213000</v>
       </c>
       <c r="O48" s="3">
         <v>213000</v>
       </c>
       <c r="P48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="Q48" s="3">
         <v>218400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>205100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>179900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>181600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>180600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>170800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>170500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>174500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>135500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>140200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>136900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>134600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>133800</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>515900</v>
+      </c>
+      <c r="E49" s="3">
         <v>521600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>436500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>441800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>447100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>461100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>472100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>484500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>501000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>516200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>522300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>529500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>533900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>563800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>568500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>592700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>590400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>594000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>557700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>571400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>609500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>214000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>220200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>182700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>188300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>194100</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3906,8 +4019,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3989,91 +4105,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E52" s="3">
         <v>109400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>104500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>119800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>119700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>119800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>183200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>126700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>131000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>124900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>120200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>117300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>122700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>119900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>125700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>127900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>133700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>134100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>129700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>133700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>129200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>128400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>123900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>120300</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>116000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4155,91 +4277,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1917400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1828000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1765100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1827900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1878000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2019600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2169500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1961400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1926800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1915200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1824400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1776300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1778200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1859700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1807700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1815100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1809500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1798200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1888800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2026800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2007200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1958400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1957900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2110500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2140700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1718800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4269,8 +4397,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4300,106 +4429,110 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E57" s="3">
         <v>50200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>58300</v>
       </c>
       <c r="G57" s="3">
         <v>58300</v>
       </c>
       <c r="H57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="I57" s="3">
         <v>68000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>66900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>63200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>54800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>45200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>48900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>60900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>63400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>57500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>55400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>60300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>55500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>55800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>38700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>40500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>32600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>34700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>36000</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>68000</v>
+        <v>164200</v>
       </c>
       <c r="E58" s="3">
         <v>68000</v>
       </c>
       <c r="F58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="G58" s="3">
         <v>68400</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
@@ -4407,11 +4540,11 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>456700</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -4419,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>2800</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>24</v>
@@ -4430,8 +4563,8 @@
       <c r="Q58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4440,22 +4573,22 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>142700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>551700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>420400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>436800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>443300</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>24</v>
@@ -4466,340 +4599,355 @@
       <c r="AC58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>204700</v>
+      </c>
+      <c r="E59" s="3">
         <v>210500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>203200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>242600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>201400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>217100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>225600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>240300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>218300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>210100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>182300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>177000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>193900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>213000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>221600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>220600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>227200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>242400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>226600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>228900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>214500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>204500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>183200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>196200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>212300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>209000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>412600</v>
+      </c>
+      <c r="E60" s="3">
         <v>328700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>333200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>369300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>259700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>285100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>292500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>747400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>273100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>263600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>227500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>232800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>239100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>261900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>282500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>284000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>284700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>297800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>429600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>553200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>690700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>680000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>667000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>228800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>247000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>245000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>643700</v>
+      </c>
+      <c r="E61" s="3">
         <v>633100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>632800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>632500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>722400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>771800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>817200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>240200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>634200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>628600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>622800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>617100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>611500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>606100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>604300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>599400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>594700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>589800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>584700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>393300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>389700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>386500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>959200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>985900</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>626300</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>178800</v>
+      </c>
+      <c r="E62" s="3">
         <v>178400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>150700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>154400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>186000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>187900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>201200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>209900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>207700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>222000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>220300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>215000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>250700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>227400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>216500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>201000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>197100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>195600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>159800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>154000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>164600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>135300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>138100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>136100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>136600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>138100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4881,8 +5029,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4964,8 +5115,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5047,91 +5201,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1235100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1140200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1116700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1156200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1168100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1244800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1310900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1197500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1115000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1114200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1070600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1064900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1101300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1095400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1099600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1089300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1081200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1088100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1179200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1291900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1248600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1205000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1191600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1324100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1369500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1009400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5161,8 +5321,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5244,8 +5405,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5327,8 +5491,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5410,8 +5577,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5493,91 +5663,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69590600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69545200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69528400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69542300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69529900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69470400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69322300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5659,8 +5835,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5742,8 +5921,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5825,91 +6007,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>682300</v>
+      </c>
+      <c r="E76" s="3">
         <v>687800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>648400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>671700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>709900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>774800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>858600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>763900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>811800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>801000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>753800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>711400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>676900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>764300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>708100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>725800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>728300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>710100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>709600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>734900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>758600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>753400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>766300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>786400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>771200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>709400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5991,179 +6179,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45017</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44835</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44744</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44653</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44562</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44471</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44380</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44289</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44198</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44107</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44009</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43918</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43827</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43736</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43645</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43554</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43463</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43372</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43099</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42917</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42826</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E81" s="3">
         <v>8400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>32600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>19200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>34600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-54800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>17200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>27300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>19700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>26700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-32800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>12500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>13000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-31400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-8700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>13700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>26000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>49200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6193,91 +6390,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E83" s="3">
         <v>16500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>15100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>21900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>18900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>19500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>25700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>26600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>27200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>26900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>28700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>29100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>32500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>19500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>15800</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>14000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>13800</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6359,8 +6560,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6442,8 +6646,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6525,8 +6732,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6608,8 +6818,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6691,91 +6904,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E89" s="3">
         <v>46200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>26600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>73600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>53400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>62600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>48100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>68700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>63900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>27200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>39100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>31300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>41200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>41500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>27600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>17500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>23900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>36700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>28700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>18600</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6805,91 +7024,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-12100</v>
       </c>
       <c r="U91" s="3">
         <v>-12100</v>
       </c>
       <c r="V91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="W91" s="3">
         <v>-12700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6971,8 +7194,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7054,91 +7280,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-66200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-29700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-14800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-6800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-7500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-9700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-7900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-17100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>107000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>16500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-213100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-27800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-57200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>38800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>28800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>44500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7168,8 +7400,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7251,8 +7484,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7334,8 +7570,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7417,8 +7656,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7500,253 +7742,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-59100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-148400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-185700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>182800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-19800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-15800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-33500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-17500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-7800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-155600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-138400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>65800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-33000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-174600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-43700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>405100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-13700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E101" s="3">
         <v>17800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-17900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-23400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>3300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>11200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-15500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>10900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-14400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-5700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-22700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>13700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>3000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>9100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>11300</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>7300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>96300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-47800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-142200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-183000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>218300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>26400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>29300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>53500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>51800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>6500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>26600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>14600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>37700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-135200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-11000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>77100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-218800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-39600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-211700</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>40200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>458500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>31400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,365 +665,377 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="30" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E7" s="2">
         <v>45017</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44835</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44744</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44653</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44562</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44471</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44380</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44289</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44198</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44107</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44009</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43918</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43827</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43736</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43645</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43554</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43463</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43372</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43099</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42917</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42826</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>263600</v>
+      </c>
+      <c r="E8" s="3">
         <v>247800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>284500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>310200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>335300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>315500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>314800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>326800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>310900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>303400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>299900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>284700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>266600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>256200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>313700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>299800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>289700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>265200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>306900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>268500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>259300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>219400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>205400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>190900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>198100</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>196000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>206500</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>117600</v>
+      </c>
+      <c r="E9" s="3">
         <v>106800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>117500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>125400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>134200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>128600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>124300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>131800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>128000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>121400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>119800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>115300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>112000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>109400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>124200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>125400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>120200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>111700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>128900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>118100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>126900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>95700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>86000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>78200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>78900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>79000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>81800</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>146000</v>
+      </c>
+      <c r="E10" s="3">
         <v>141000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>167000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>184800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>201100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>186900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>190500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>195000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>182900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>180100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>169400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>154600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>146800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>189500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>174400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>169500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>153500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>178000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>150400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>132400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>123700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>119400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>112700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>119200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>117000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>124700</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1054,94 +1066,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E12" s="3">
         <v>50800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>51900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>52600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>54200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>54900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>50500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>53600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>104200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>50000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>48800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>45000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>46800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>50300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>51500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>49800</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>48700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>45900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>42600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>42200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>32100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>29900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>29100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>30200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>34100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>35900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1226,102 +1242,108 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>10200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>6400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>85900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-600</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>5700</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>14800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2700</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>5100</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>18400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>1800</v>
       </c>
-      <c r="AD14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E15" s="3">
         <v>2100</v>
-      </c>
-      <c r="E15" s="3">
-        <v>2200</v>
       </c>
       <c r="F15" s="3">
         <v>2200</v>
@@ -1333,73 +1355,76 @@
         <v>2200</v>
       </c>
       <c r="I15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J15" s="3">
         <v>2600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8800</v>
-      </c>
-      <c r="R15" s="3">
-        <v>8700</v>
       </c>
       <c r="S15" s="3">
         <v>8700</v>
       </c>
       <c r="T15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="U15" s="3">
         <v>9200</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>10400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>9800</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>10000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>4500</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>3400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3500</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3400</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1427,180 +1452,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E17" s="3">
         <v>249900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>261600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>260400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>290400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>281100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>271900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>365800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>278200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>267500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>253400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>223300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>247100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>268700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>279100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>261900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>257300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>274000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>269700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>272400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>219300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>198500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>184200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>186100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>211200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>199800</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>49800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>34400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>42900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-39000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>42300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>31300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>43300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>45000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>20700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>7900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>32900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-13100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>6900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>12000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-15200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>6700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1631,209 +1663,216 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>4100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>19500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>56200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>57700</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E21" s="3">
         <v>14600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>62100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>56900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>62900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-18100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>68700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>57400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>70200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>41600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>73400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>50300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>57200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>35900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>63100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>29600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>23500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>23300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>25600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>22500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>45500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>54800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>79100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E22" s="3">
         <v>6700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3900</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3600</v>
       </c>
       <c r="M22" s="3">
         <v>3600</v>
@@ -1842,227 +1881,236 @@
         <v>3600</v>
       </c>
       <c r="O22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P22" s="3">
         <v>8600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>8400</v>
       </c>
       <c r="Q22" s="3">
         <v>8400</v>
       </c>
       <c r="R22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="S22" s="3">
         <v>8300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>8100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8100</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>11700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>12500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>13900</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>10700</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>9400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>18900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-41200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>31300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>37900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>15100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>26300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-9600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-20700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>17600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>30300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>55000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E24" s="3">
         <v>6000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>24300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>9400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>13600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>28000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>8600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>9900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>8300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>5700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-800</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>5500</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>5800</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2147,180 +2195,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>32600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>19200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>34600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-54800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>17200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>19700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>26700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>12500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-15300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-31400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>12100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>26000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>49200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>32600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>19200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>34600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-54800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>17200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>19700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>12500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>15400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-15300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-31400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>12100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>26000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>49200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2405,8 +2462,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2452,47 +2512,50 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-2400</v>
       </c>
-      <c r="V29" s="3" t="s">
+      <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3" t="s">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="3" t="s">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>1600</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
-      </c>
       <c r="AC29" s="3">
         <v>0</v>
       </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2577,8 +2640,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2663,180 +2729,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-4100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-19500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-56200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-57700</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>32600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>19200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>34600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-54800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>17200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>19700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>12500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>13000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-15300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-31400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>13700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>26000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>49200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2921,185 +2996,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>32600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>19200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>34600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-54800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>17200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>19700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>12500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>13000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-15300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-31400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>13700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>26000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>49200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E38" s="2">
         <v>45017</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44835</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44744</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44653</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44562</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44471</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44380</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44289</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44198</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44107</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44009</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43918</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43827</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43736</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43645</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43554</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43463</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43372</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43099</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42917</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42826</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3130,8 +3214,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3162,117 +3247,121 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>506500</v>
+      </c>
+      <c r="E41" s="3">
         <v>580600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>484100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>512600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>559900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>589800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>732100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>915600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>697800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>672200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>644200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>590800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>539000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>532500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>551800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>525300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>521500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>502700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>465600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>600700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>611400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>534300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>753100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>792700</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1004400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>964200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>505700</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E42" s="3">
         <v>1500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1700</v>
-      </c>
-      <c r="J42" s="3">
-        <v>1600</v>
       </c>
       <c r="K42" s="3">
         <v>1600</v>
@@ -3284,402 +3373,417 @@
         <v>1600</v>
       </c>
       <c r="N42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="O42" s="3">
         <v>1500</v>
       </c>
       <c r="P42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Q42" s="3">
         <v>1300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1600</v>
-      </c>
-      <c r="R42" s="3">
-        <v>1500</v>
       </c>
       <c r="S42" s="3">
         <v>1500</v>
       </c>
       <c r="T42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U42" s="3">
         <v>27100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>30000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>51700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>169300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>196200</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>452300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>430900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>432200</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>478600</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>498000</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>263900</v>
+      </c>
+      <c r="E43" s="3">
         <v>257400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>260200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>279700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>285800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>289200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>285100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>268400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>275600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>284500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>274000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>242100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>256900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>257400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>271100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>251900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>254500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>241800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>255000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>224100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>218600</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>188200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>139900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>121200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>120400</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>142600</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>164400</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>116100</v>
+      </c>
+      <c r="E44" s="3">
         <v>125900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>110600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>110100</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>113900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>114400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>102800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>94900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>90600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>88200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>87300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>83300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>87000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>91900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>99400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>102700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>95100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>87200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>89500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>92300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>104200</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>77300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>68900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>48000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>46800</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>47200</v>
       </c>
       <c r="AD44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E45" s="3">
         <v>37600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>45900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>46600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>47900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>49500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>47300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>44200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>42200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>31100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>38400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>39900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>35800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>38400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>36100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>42900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>52100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>60200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>63600</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>66600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>57100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>55400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>62000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>65300</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>59600</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>945000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1003000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>911900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>950800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1005100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1044000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1180600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1332600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1112100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1080000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1046400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>961600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>913600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>914000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>954800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>914200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>916800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>909600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>889900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1026200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1155200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1089500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1479700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1469100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1667000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1697500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1274900</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3764,180 +3868,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>283400</v>
+      </c>
+      <c r="E48" s="3">
         <v>287700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>285100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>273300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>274100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>267100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>258200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>245000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>241100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>219100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>221600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>215600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>213000</v>
       </c>
       <c r="P48" s="3">
         <v>213000</v>
       </c>
       <c r="Q48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="R48" s="3">
         <v>218400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>205100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>179900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>181600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>180600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>170800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>170500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>174500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>135500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>140200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>136900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>134600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>133800</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>513800</v>
+      </c>
+      <c r="E49" s="3">
         <v>515900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>521600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>436500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>441800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>447100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>461100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>472100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>484500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>501000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>516200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>522300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>529500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>533900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>563800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>568500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>592700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>590400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>594000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>557700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>571400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>609500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>214000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>220200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>182700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>188300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>194100</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4022,8 +4135,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4108,94 +4224,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E52" s="3">
         <v>110800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>109400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>104500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>106900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>119800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>119700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>119800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>183200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>126700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>131000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>124900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>120200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>117300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>122700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>119900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>125700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>127900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>133700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>134100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>129700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>133700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>129200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>128400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>123900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>120300</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>116000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4280,94 +4402,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1850500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1917400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1828000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1765100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1827900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1878000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2019600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2169500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1961400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1926800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1915200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1824400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1776300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1778200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1859700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1807700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1815100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1809500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1798200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1888800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2026800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2007200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1958400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1957900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2110500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2140700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>1718800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4398,8 +4526,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4430,112 +4559,116 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>47200</v>
+      </c>
+      <c r="E57" s="3">
         <v>43700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>50200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>58300</v>
       </c>
       <c r="H57" s="3">
         <v>58300</v>
       </c>
       <c r="I57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="J57" s="3">
         <v>68000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>66900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>63200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>54800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>45200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>53000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>45200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>48900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>60900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>63400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>57500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>55400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>60300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>55500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>55800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>38700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>40500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>32600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>34700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>36000</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>96200</v>
+      </c>
+      <c r="E58" s="3">
         <v>164200</v>
-      </c>
-      <c r="E58" s="3">
-        <v>68000</v>
       </c>
       <c r="F58" s="3">
         <v>68000</v>
       </c>
       <c r="G58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="H58" s="3">
         <v>68400</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
@@ -4543,11 +4676,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>456700</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -4555,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>2800</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>24</v>
@@ -4566,8 +4699,8 @@
       <c r="R58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -4576,22 +4709,22 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>142700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>551700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>420400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>436800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>443300</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>24</v>
@@ -4602,352 +4735,367 @@
       <c r="AD58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200100</v>
+      </c>
+      <c r="E59" s="3">
         <v>204700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>210500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>203200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>242600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>201400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>217100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>225600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>240300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>218300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>210100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>182300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>177000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>193900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>213000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>221600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>220600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>227200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>242400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>226600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>228900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>214500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>204500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>183200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>196200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>212300</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>209000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>343500</v>
+      </c>
+      <c r="E60" s="3">
         <v>412600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>328700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>333200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>369300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>259700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>285100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>292500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>747400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>273100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>263600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>227500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>232800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>239100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>261900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>282500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>284000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>284700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>297800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>429600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>553200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>690700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>680000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>667000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>228800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>247000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>245000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>645300</v>
+      </c>
+      <c r="E61" s="3">
         <v>643700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>633100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>632800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>632500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>722400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>771800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>817200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>240200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>634200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>628600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>622800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>617100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>611500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>606100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>600600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>604300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>599400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>594700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>589800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>584700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>393300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>389700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>386500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>959200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>985900</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>626300</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>170900</v>
+      </c>
+      <c r="E62" s="3">
         <v>178800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>178400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>150700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>154400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>186000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>187900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>201200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>209900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>207700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>222000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>220300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>215000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>250700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>227400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>216500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>201000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>197100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>195600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>159800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>154000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>164600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>135300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>138100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>136100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>136600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>138100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5032,8 +5180,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5118,8 +5269,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5204,94 +5358,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1159700</v>
+      </c>
+      <c r="E66" s="3">
         <v>1235100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1140200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1116700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1156200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1168100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1244800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1310900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1197500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1115000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1114200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1070600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1064900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1101300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1095400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1099600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1089300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1081200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1088100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1179200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1291900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1248600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1205000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1191600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1324100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1369500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1009400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5322,8 +5482,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5408,8 +5569,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5494,8 +5658,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5580,8 +5747,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5666,94 +5836,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69600700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69590600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69545200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69528400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69542300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69529900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69470400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69322300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5838,8 +6014,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5924,8 +6103,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6010,94 +6192,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>690800</v>
+      </c>
+      <c r="E76" s="3">
         <v>682300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>687800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>648400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>671700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>709900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>774800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>858600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>763900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>811800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>801000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>753800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>711400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>676900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>764300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>708100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>725800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>728300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>710100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>709600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>734900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>758600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>753400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>766300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>786400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>771200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>709400</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6182,185 +6370,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45108</v>
+      </c>
+      <c r="E80" s="2">
         <v>45017</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44835</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44744</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44653</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44562</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44471</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44380</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44289</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44198</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44107</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44009</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43918</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43827</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43736</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43645</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43554</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43463</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43372</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43099</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42917</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42826</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>32600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>19200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>34600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-54800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>17200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>19700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-32800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>12500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>13000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-15300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-31400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-7600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>13700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>26000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>49200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6391,94 +6588,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E83" s="3">
         <v>17300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>16500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>17800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>15100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>21900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>18900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>19500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>25700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>26600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>27200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>26900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>27300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>28700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>29100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>32500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>19500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>15800</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>14000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>13800</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>14700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6563,8 +6764,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6649,8 +6853,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6735,8 +6942,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6821,8 +7031,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6907,94 +7120,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E89" s="3">
         <v>17800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>26600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>73600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>53400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>62600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>48100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>68700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>63900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>27200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>39100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>38000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>31300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>41200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>41500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>27600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>17500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>23900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>36700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>28700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>18600</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7025,94 +7244,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-12100</v>
       </c>
       <c r="V91" s="3">
         <v>-12100</v>
       </c>
       <c r="W91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="X91" s="3">
         <v>-12700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-8500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7197,8 +7420,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7283,94 +7509,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-66200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-29700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-6800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-7500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-4800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-7900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-17100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>107000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>16500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-213100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-27800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-57200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>38800</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>28800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>44500</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7401,8 +7633,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7487,8 +7720,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7573,8 +7809,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7659,8 +7898,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7745,262 +7987,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-79300</v>
+      </c>
+      <c r="E100" s="3">
         <v>82000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-26800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-59100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-148400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-185700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>182800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-7600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-19800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-15800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-33500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-17500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-7800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-155600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-138400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>65800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-33000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-174600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-43700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>405100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-13700</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>5900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>17800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-17900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-23400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>3300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>11200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>10900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-14400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-22700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>13700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>3000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>9100</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>11300</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>7300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-77600</v>
+      </c>
+      <c r="E102" s="3">
         <v>96300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-28100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-47800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-28700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-142200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-183000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>218300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>26400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>29300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>53500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>51800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>6500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>26600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>14600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>37700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-135200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-11000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>77100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-218800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-39600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-211700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>40200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>458500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>31400</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-8600</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/VIAV_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,377 +665,389 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="31" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="32" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45108</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45017</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44835</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44744</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44653</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44562</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44471</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44380</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44289</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44198</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44107</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44009</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43918</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43827</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43736</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43645</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43554</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43463</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43372</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43099</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42917</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42826</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>247900</v>
+      </c>
+      <c r="E8" s="3">
         <v>263600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>247800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>284500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>310200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>335300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>315500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>314800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>326800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>310900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>303400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>299900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>284700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>266600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>256200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>313700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>299800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>289700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>265200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>306900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>268500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>259300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>219400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>205400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>190900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>198100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>196000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>206500</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>210800</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>103500</v>
+      </c>
+      <c r="E9" s="3">
         <v>117600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>106800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>117500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>125400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>134200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>128600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>124300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>131800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>128000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>121400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>119800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>115300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>112000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>109400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>124200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>125400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>120200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>111700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>128900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>118100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>126900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>95700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>86000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>78200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>78900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>79000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>81800</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E10" s="3">
         <v>146000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>141000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>167000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>184800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>201100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>186900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>190500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>195000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>182900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>182000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>180100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>169400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>154600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>146800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>189500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>174400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>169500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>153500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>178000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>150400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>132400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>123700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>119400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>112700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>119200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>117000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>124700</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>125100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1067,97 +1079,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>49900</v>
+      </c>
+      <c r="E12" s="3">
         <v>51600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>50800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>51900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>52600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>54200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>54900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>50500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>53600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>104200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>50000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>48800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>45000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>46800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>50300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>51500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>49800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>48700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>45900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>42600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>42200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>32100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>29900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>29100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>30200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>34100</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>35900</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>36100</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,108 +1261,114 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E14" s="3">
         <v>1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10200</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>6400</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>6300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>85900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>5700</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-1600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>14800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2700</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>5100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>18400</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>1800</v>
       </c>
-      <c r="AE14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E15" s="3">
         <v>2200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2100</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2200</v>
       </c>
       <c r="G15" s="3">
         <v>2200</v>
@@ -1358,73 +1380,76 @@
         <v>2200</v>
       </c>
       <c r="J15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K15" s="3">
         <v>2600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>8400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>8800</v>
-      </c>
-      <c r="S15" s="3">
-        <v>8700</v>
       </c>
       <c r="T15" s="3">
         <v>8700</v>
       </c>
       <c r="U15" s="3">
+        <v>8700</v>
+      </c>
+      <c r="V15" s="3">
         <v>9200</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>10400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>9800</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>10000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>4500</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>3400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>3100</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>3600</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>3500</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>3400</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1453,186 +1478,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>231900</v>
+      </c>
+      <c r="E17" s="3">
         <v>251800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>249900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>261600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>260400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>290400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>281100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>271900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>365800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>278200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>267500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>257600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>253400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>223300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>247100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>268700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>279100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>261900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>257300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>274000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>269700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>272400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>219300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>198500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>184200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>186100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>211200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>199800</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>200700</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="3">
         <v>11800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>49800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>44900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>42900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-39000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>32700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>31300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>43300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>45000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>20700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>7900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>32900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-13100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>6900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>6700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>12000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-15200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>6700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>10100</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1664,218 +1696,225 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E20" s="3">
         <v>2700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>5300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>4100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>19500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>56200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>57700</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>82800</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>41600</v>
+      </c>
+      <c r="E21" s="3">
         <v>32400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>68700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>62100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>56900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>62900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-18100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>68700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>57400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>70200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>41600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>73400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>50300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>57200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>35900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>63100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>29600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>23500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>23300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>25600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>22500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>45500</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>54800</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>79100</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>108100</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E22" s="3">
         <v>8100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>6700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>6200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>6100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>6200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>6400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3900</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3600</v>
       </c>
       <c r="N22" s="3">
         <v>3600</v>
@@ -1884,233 +1923,242 @@
         <v>3600</v>
       </c>
       <c r="P22" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q22" s="3">
         <v>8600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>8400</v>
       </c>
       <c r="R22" s="3">
         <v>8400</v>
       </c>
       <c r="S22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="T22" s="3">
         <v>8300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>8100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>8000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>8100</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>10100</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>11700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>11400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>11700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>12500</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>13900</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>10700</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>9400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>9200</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E23" s="3">
         <v>6400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>40800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-41200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>31300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>31400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>37900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>15100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>26300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-9600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-20700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-7600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-5600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>17600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>30300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>55000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>83700</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E24" s="3">
         <v>6500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>6000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>24300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>13600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>28000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>8600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>8300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>8300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>5600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>5700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>1100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>5500</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>4300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>5800</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2198,186 +2246,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>32600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>19200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-54800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>17200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>27300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>26700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-32800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>12500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4800</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-15300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>12100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>26000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>49200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>32600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>19200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-54800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>17200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>27300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-32800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>12500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>15400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-15300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>12100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>26000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>49200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2465,8 +2522,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2515,47 +2575,50 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2400</v>
       </c>
-      <c r="W29" s="3" t="s">
+      <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3" t="s">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="3" t="s">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>1600</v>
       </c>
-      <c r="AC29" s="3">
-        <v>0</v>
-      </c>
       <c r="AD29" s="3">
         <v>0</v>
       </c>
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2643,8 +2706,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2732,186 +2798,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-5300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-4100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-19500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-56200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-57700</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-82800</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>32600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>19200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-54800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>17200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>27300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-32800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>12500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>13000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-15300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>13700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>26000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>49200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2999,191 +3074,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>32600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>19200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-54800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>17200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>27300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-32800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>12500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>13000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-15300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>13700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>26000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>49200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45108</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45017</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44835</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44744</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44653</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44562</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44471</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44380</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44289</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44198</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44107</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44009</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43918</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43827</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43736</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43645</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43554</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43463</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43372</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43099</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42917</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42826</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3215,8 +3299,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3248,123 +3333,127 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>520600</v>
+      </c>
+      <c r="E41" s="3">
         <v>506500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>580600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>484100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>512600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>559900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>589800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>732100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>915600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>697800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>672200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>644200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>590800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>539000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>532500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>551800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>525300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>521500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>502700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>465600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>600700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>611400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>534300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>753100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>792700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1004400</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>964200</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>505700</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>474300</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E42" s="3">
         <v>14600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>1500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1700</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1600</v>
       </c>
       <c r="L42" s="3">
         <v>1600</v>
@@ -3376,414 +3465,429 @@
         <v>1600</v>
       </c>
       <c r="O42" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="P42" s="3">
         <v>1500</v>
       </c>
       <c r="Q42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R42" s="3">
         <v>1300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1600</v>
-      </c>
-      <c r="S42" s="3">
-        <v>1500</v>
       </c>
       <c r="T42" s="3">
         <v>1500</v>
       </c>
       <c r="U42" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V42" s="3">
         <v>27100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>30000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>51700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>169300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>196200</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>452300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>430900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>432200</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>478600</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>498000</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>558800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>222500</v>
+      </c>
+      <c r="E43" s="3">
         <v>263900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>257400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>260200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>279700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>285800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>289200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>285100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>268400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>275600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>284500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>274000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>242100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>256900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>257400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>271100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>251900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>254500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>241800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>255000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>224100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>218600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>188200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>139900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>121200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>120400</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>142600</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>164400</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>165800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>113500</v>
+      </c>
+      <c r="E44" s="3">
         <v>116100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>125900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>110600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>110100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>113900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>114400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>102800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>94900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>90600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>88200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>87300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>83300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>87000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>91900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>99400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>102700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>95100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>87200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>89500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>92300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>104200</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>77300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>68900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>48000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>46800</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>47200</v>
       </c>
       <c r="AE44" s="3">
         <v>47200</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>47200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E45" s="3">
         <v>43900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>37600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>45900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>46600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>47900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>49500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>47300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>44200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>42200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>31100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>38400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>39900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>38400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>36100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>36600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>42900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>52100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>60200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>63600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>66600</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>57100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>55400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>62000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>65300</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>59600</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>52600</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>916100</v>
+      </c>
+      <c r="E46" s="3">
         <v>945000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1003000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>911900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>950800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1005100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1044000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1180600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1332600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1112100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1080000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1046400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>961600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>913600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>914000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>954800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>914200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>916800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>909600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>889900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1026200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1155200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1089500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1479700</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1469100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1667000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1697500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1274900</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>1298700</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3871,186 +3975,195 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>277100</v>
+      </c>
+      <c r="E48" s="3">
         <v>283400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>287700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>285100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>273300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>274100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>267100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>258200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>245000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>241100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>219100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>221600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>215600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>213000</v>
       </c>
       <c r="Q48" s="3">
         <v>213000</v>
       </c>
       <c r="R48" s="3">
+        <v>213000</v>
+      </c>
+      <c r="S48" s="3">
         <v>218400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>205100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>179900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>181600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>180600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>170800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>170500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>174500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>135500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>140200</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>136900</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>134600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>133800</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>137000</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>502400</v>
+      </c>
+      <c r="E49" s="3">
         <v>513800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>515900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>521600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>436500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>441800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>447100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>461100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>472100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>484500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>501000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>516200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>522300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>529500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>533900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>563800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>568500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>592700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>590400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>594000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>557700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>571400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>609500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>214000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>220200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>182700</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>188300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>194100</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>203900</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4138,8 +4251,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4227,97 +4343,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E52" s="3">
         <v>108300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>110800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>109400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>104500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>106900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>119800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>119700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>119800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>183200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>126700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>131000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>124900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>120200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>117300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>122700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>119900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>125700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>127900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>133700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>134100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>129700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>133700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>129200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>128400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>123900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>120300</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>116000</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>123600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4405,97 +4527,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1802100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1850500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1917400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1828000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1765100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1827900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1878000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2019600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2169500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1961400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1926800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1915200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1824400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1776300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1778200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1859700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1807700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1815100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1809500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1798200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1888800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2026800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2007200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1958400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1957900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2110500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2140700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>1718800</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>1763200</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4527,8 +4655,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4560,97 +4689,101 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E57" s="3">
         <v>47200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>43700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>58300</v>
       </c>
       <c r="I57" s="3">
         <v>58300</v>
       </c>
       <c r="J57" s="3">
+        <v>58300</v>
+      </c>
+      <c r="K57" s="3">
         <v>68000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>66900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>63200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>54800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>53500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>45200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>53000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>45200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>48900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>60900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>63400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>57500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>55400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>60300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>55500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>55800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>38700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>40500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>32600</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>34700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>36000</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>37100</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4658,20 +4791,20 @@
         <v>96200</v>
       </c>
       <c r="E58" s="3">
+        <v>96200</v>
+      </c>
+      <c r="F58" s="3">
         <v>164200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>68000</v>
       </c>
       <c r="G58" s="3">
         <v>68000</v>
       </c>
       <c r="H58" s="3">
+        <v>68000</v>
+      </c>
+      <c r="I58" s="3">
         <v>68400</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
@@ -4679,11 +4812,11 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>456700</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -4691,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>2800</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>24</v>
@@ -4702,8 +4835,8 @@
       <c r="S58" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4712,22 +4845,22 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>142700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>551700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>420400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>436800</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>443300</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>24</v>
@@ -4738,364 +4871,379 @@
       <c r="AE58" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>174900</v>
+      </c>
+      <c r="E59" s="3">
         <v>200100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>204700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>210500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>203200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>242600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>201400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>217100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>225600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>240300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>218300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>210100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>182300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>177000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>193900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>213000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>221600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>220600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>227200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>242400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>226600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>228900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>214500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>204500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>183200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>196200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>212300</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>209000</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>205900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>310900</v>
+      </c>
+      <c r="E60" s="3">
         <v>343500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>412600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>328700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>333200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>369300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>259700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>285100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>292500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>747400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>273100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>263600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>227500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>232800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>239100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>261900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>282500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>284000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>284700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>297800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>429600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>553200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>690700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>680000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>667000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>228800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>247000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>245000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>243000</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>646800</v>
+      </c>
+      <c r="E61" s="3">
         <v>645300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>643700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>633100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>632800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>632500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>722400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>771800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>817200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>240200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>634200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>628600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>622800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>617100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>611500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>606100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>600600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>604300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>599400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>594700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>589800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>584700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>393300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>389700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>386500</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>959200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>985900</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>626300</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>590800</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>169200</v>
+      </c>
+      <c r="E62" s="3">
         <v>170900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>178800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>178400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>150700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>154400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>186000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>187900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>201200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>209900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>207700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>222000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>220300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>215000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>250700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>227400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>216500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>201000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>197100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>195600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>159800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>154000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>164600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>135300</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>138100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>136100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>136600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>138100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>174600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5183,8 +5331,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -5272,8 +5423,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5361,97 +5515,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1126900</v>
+      </c>
+      <c r="E66" s="3">
         <v>1159700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1235100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1140200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1116700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1156200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1168100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1244800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1310900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1197500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1115000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1114200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1070600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1064900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1101300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1095400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1099600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1089300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1081200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1088100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1179200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1291900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1248600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1205000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1191600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1324100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1369500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1009400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1008400</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5483,8 +5643,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5572,8 +5733,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5661,8 +5825,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,8 +5917,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5839,97 +6009,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-69600900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-69600700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-69590600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-69545200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-69528400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-69542300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-69529900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-69470400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-69385600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-69322300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-69380900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-69384800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-69389600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-69397200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-69423200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-69357400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-69376200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-69384500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-69394700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-69389500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-69394100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-69378600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-69364500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-69346000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-69320500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-69305800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-69319100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-69293200</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-69328200</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6017,8 +6193,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6106,8 +6285,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6195,97 +6377,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>675200</v>
+      </c>
+      <c r="E76" s="3">
         <v>690800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>682300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>687800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>648400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>671700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>709900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>774800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>858600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>763900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>811800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>801000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>753800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>711400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>676900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>764300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>708100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>725800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>728300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>710100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>709600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>734900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>758600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>753400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>766300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>786400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>771200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>709400</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>754800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6373,191 +6561,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45108</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45017</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44835</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44744</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44653</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44562</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44471</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44380</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44289</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44198</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44107</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44009</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43918</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43827</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43736</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43645</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43554</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43463</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43372</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43099</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42917</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42826</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42644</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>32600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>19200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-54800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>17200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>27300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-32800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>12500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>13000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-15300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-8700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-7600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>13700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>26000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>49200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>78000</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6589,97 +6786,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E83" s="3">
         <v>17900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>17300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>16500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>17800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>15100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>21900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>18900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>19500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>25700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>25800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>25300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>25500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>26600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>27200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>27100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>26900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>27300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>27100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>28700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>29100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>32500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>19500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>15800</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>15600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>14000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>13800</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>14700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6767,8 +6968,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6856,8 +7060,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6945,8 +7152,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7034,8 +7244,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7123,97 +7336,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E89" s="3">
         <v>23500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>26600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>73600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>53400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>62600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>68700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>63900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>27200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>39100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>38000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>31300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>41200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>41500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>27600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>17500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>13600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>23900</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>11000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>36700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>28700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>18600</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>10300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7245,97 +7464,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-10800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-14800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-6200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-12100</v>
       </c>
       <c r="W91" s="3">
         <v>-12100</v>
       </c>
       <c r="X91" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-12700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8400</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-8200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-40700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-8500</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-11600</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7423,8 +7646,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7512,97 +7738,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-66200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-17700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-6800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-7500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-4800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-5900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-7900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-17100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>107000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>16500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-213100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-27800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-57200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>38800</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>28800</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>44500</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7634,8 +7866,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7723,8 +7956,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7812,8 +8048,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7901,8 +8140,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7990,271 +8232,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-79300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>82000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-26800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-59100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-148400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-185700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>182800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-7600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-19800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-15800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-33500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-17500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-7800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-155600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-138400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>65800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-174600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-43700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>405100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-13700</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-22400</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-9300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>5900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>17800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-17900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-23400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>3300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-4400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>11200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>10900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-14400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>4000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-7200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-22700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>13700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>3000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>9100</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>11300</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>7300</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-18000</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-77600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>96300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-28100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-47800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-28700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-142200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-183000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>218300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>26400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>29300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>53500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>51800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>6500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>26600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>14600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>37700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-135200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-11000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>77100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-218800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-39600</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-211700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>40200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>458500</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>31400</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>-8600</v>
       </c>
     </row>
